--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_5_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_5_26.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1213092.474136366</v>
+        <v>1220224.596025719</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14829673.35797655</v>
+        <v>14829673.35797656</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6195795.197173306</v>
+        <v>6195795.197173305</v>
       </c>
     </row>
     <row r="11">
@@ -665,19 +665,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="F2" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="G2" t="n">
-        <v>171.0294181666926</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -701,7 +701,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>73.50892723866019</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -789,13 +789,13 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>7.068036743741261</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>37.10634673358873</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -832,13 +832,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -899,7 +899,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>159.0801288120801</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>205.5178444382804</v>
@@ -908,7 +908,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="G5" t="n">
-        <v>205.5178444382804</v>
+        <v>19.20171008547518</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -938,13 +938,13 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -972,25 +972,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>19.76971678912829</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
@@ -1032,7 +1032,7 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>130.6873925643687</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1093,7 +1093,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1108,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1133,28 +1133,28 @@
         <v>205.5178444382804</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="F8" t="n">
-        <v>199.4261177940757</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>15.30273751513505</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>158.841334124391</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1175,10 +1175,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1209,13 +1209,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>72.7628408945</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1227,10 +1227,10 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>58.10966916158642</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,13 +1257,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1339,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1412,31 +1412,31 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
       </c>
       <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="T11" t="n">
+      <c r="W11" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>171.0294181666926</v>
       </c>
       <c r="Y11" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1455,19 +1455,19 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>39.7625520093063</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,25 +1494,25 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>120.0500723064956</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>31.1509994400877</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1625,7 +1625,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1652,19 +1652,19 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="U14" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1683,22 +1683,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1734,19 +1734,19 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>53.6747228092714</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>37.36227613112857</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1862,7 +1862,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
         <v>149.8691179411497</v>
@@ -1898,10 +1898,10 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>142.8673256144868</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1920,13 +1920,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1941,7 +1941,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1974,16 +1974,16 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>87.40386596570143</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>4.580549094716531</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2044,10 +2044,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>133.186967585368</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2084,13 +2084,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="D20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2099,7 +2099,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2123,16 +2123,16 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>100.8824071085284</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2147,7 +2147,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2163,16 +2163,16 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>123.4225424657643</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2181,7 +2181,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2211,16 +2211,16 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>63.14223173826442</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -2290,13 +2290,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2315,64 +2315,64 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C23" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>21.18375537072436</v>
+      </c>
+      <c r="S23" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T23" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U23" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2394,19 +2394,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>40.81693599802263</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2442,19 +2442,19 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>89.93607067950306</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -2518,7 +2518,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -2533,7 +2533,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>133.186967585368</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2567,13 +2567,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>62.4162677022923</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,16 +2603,16 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V26" t="n">
-        <v>241.0142888776591</v>
+        <v>112.3289263072337</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>82.69355372315668</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2679,28 +2679,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>241.0142888776591</v>
+        <v>4.580549094716531</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2716,7 +2716,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2752,13 +2752,13 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2789,28 +2789,28 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
+      <c r="H29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2834,10 +2834,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>1.809496073036132</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -2855,7 +2855,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>241.0142888776591</v>
@@ -2868,7 +2868,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -2919,25 +2919,25 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>96.25958369051713</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>178.8112197715487</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S31" t="n">
-        <v>0</v>
-      </c>
-      <c r="T31" t="n">
-        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3035,7 +3035,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="F32" t="n">
         <v>241.0142888776591</v>
@@ -3044,13 +3044,13 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3074,19 +3074,19 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>9.234466016111892</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3095,7 +3095,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3108,25 +3108,25 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>6.529575518559294</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -3162,16 +3162,16 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>122.5377819982128</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -3205,10 +3205,10 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>39.82778746869526</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3241,7 +3241,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3269,13 +3269,13 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -3308,16 +3308,16 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3329,10 +3329,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3345,7 +3345,7 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -3354,19 +3354,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>83.0681699573841</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3393,13 +3393,13 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>129.4543293520206</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -3408,10 +3408,10 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3439,7 +3439,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3521,10 +3521,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>1.809496073036188</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3554,7 +3554,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3582,13 +3582,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>31.24017141215197</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -3603,7 +3603,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -3636,13 +3636,13 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>26.23921687579552</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
@@ -3676,7 +3676,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3727,7 +3727,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3782,7 +3782,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -3797,7 +3797,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="V41" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3806,7 +3806,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="Y41" t="n">
-        <v>205.5178444382804</v>
+        <v>171.0294181666926</v>
       </c>
     </row>
     <row r="42">
@@ -3825,16 +3825,16 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>104.1252322629233</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3864,19 +3864,19 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>28.72815266929527</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
@@ -3885,7 +3885,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3940,13 +3940,13 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>47.02492433367362</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3977,7 +3977,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>171.0294181666926</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3986,7 +3986,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -4019,7 +4019,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -4028,22 +4028,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" t="n">
+        <v>181.0201173812374</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0</v>
+      </c>
+      <c r="X44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y44" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="U44" t="n">
-        <v>0</v>
-      </c>
-      <c r="V44" t="n">
-        <v>0</v>
-      </c>
-      <c r="W44" t="n">
-        <v>0</v>
-      </c>
-      <c r="X44" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="Y44" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4053,19 +4053,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>105.3690580549763</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -4113,16 +4113,16 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X45" t="n">
+        <v>181.0201173812374</v>
+      </c>
+      <c r="Y45" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="Y45" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4135,67 +4135,67 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="D46" t="n">
-        <v>0</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" t="n">
-        <v>0</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" t="n">
-        <v>0</v>
-      </c>
-      <c r="S46" t="n">
-        <v>0</v>
-      </c>
-      <c r="T46" t="n">
-        <v>0</v>
-      </c>
-      <c r="U46" t="n">
-        <v>0</v>
-      </c>
-      <c r="V46" t="n">
-        <v>0</v>
-      </c>
-      <c r="W46" t="n">
-        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>604.3859801240053</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="C2" t="n">
-        <v>604.3859801240053</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="D2" t="n">
-        <v>604.3859801240053</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="E2" t="n">
-        <v>604.3859801240053</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="F2" t="n">
-        <v>396.792197863116</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="G2" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H2" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I2" t="n">
         <v>16.44142755506243</v>
@@ -4337,43 +4337,43 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M2" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N2" t="n">
-        <v>583.2163723184226</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O2" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P2" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q2" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R2" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S2" t="n">
-        <v>604.3859801240053</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="T2" t="n">
-        <v>604.3859801240053</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="U2" t="n">
-        <v>604.3859801240053</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V2" t="n">
-        <v>604.3859801240053</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W2" t="n">
-        <v>604.3859801240053</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X2" t="n">
-        <v>604.3859801240053</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="Y2" t="n">
-        <v>604.3859801240053</v>
+        <v>614.4775954922324</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>130.5646958002688</v>
+        <v>379.2691667366082</v>
       </c>
       <c r="C3" t="n">
-        <v>130.5646958002688</v>
+        <v>204.8161374554811</v>
       </c>
       <c r="D3" t="n">
-        <v>130.5646958002688</v>
+        <v>204.8161374554811</v>
       </c>
       <c r="E3" t="n">
-        <v>130.5646958002688</v>
+        <v>204.8161374554811</v>
       </c>
       <c r="F3" t="n">
-        <v>130.5646958002688</v>
+        <v>204.8161374554811</v>
       </c>
       <c r="G3" t="n">
-        <v>130.5646958002688</v>
+        <v>204.8161374554811</v>
       </c>
       <c r="H3" t="n">
-        <v>17.19556020784815</v>
+        <v>91.44700186306046</v>
       </c>
       <c r="I3" t="n">
         <v>17.19556020784815</v>
@@ -4410,22 +4410,22 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K3" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L3" t="n">
-        <v>141.7989876128999</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M3" t="n">
-        <v>163.1080096386462</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="N3" t="n">
-        <v>366.5706756325438</v>
+        <v>618.608711759224</v>
       </c>
       <c r="O3" t="n">
-        <v>570.0333416264414</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P3" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q3" t="n">
         <v>822.0713777531216</v>
@@ -4437,22 +4437,22 @@
         <v>547.4845037566762</v>
       </c>
       <c r="T3" t="n">
-        <v>345.2979091154422</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="U3" t="n">
-        <v>137.7041268545529</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="V3" t="n">
-        <v>130.5646958002688</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="W3" t="n">
-        <v>130.5646958002688</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="X3" t="n">
-        <v>130.5646958002688</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="Y3" t="n">
-        <v>130.5646958002688</v>
+        <v>547.4845037566762</v>
       </c>
     </row>
     <row r="4">
@@ -4465,25 +4465,25 @@
         <v>148.224788009872</v>
       </c>
       <c r="C4" t="n">
-        <v>110.7436296931158</v>
+        <v>148.224788009872</v>
       </c>
       <c r="D4" t="n">
-        <v>110.7436296931158</v>
+        <v>148.224788009872</v>
       </c>
       <c r="E4" t="n">
-        <v>110.7436296931158</v>
+        <v>148.224788009872</v>
       </c>
       <c r="F4" t="n">
-        <v>110.7436296931158</v>
+        <v>148.224788009872</v>
       </c>
       <c r="G4" t="n">
-        <v>110.7436296931158</v>
+        <v>148.224788009872</v>
       </c>
       <c r="H4" t="n">
-        <v>110.7436296931158</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I4" t="n">
-        <v>110.7436296931158</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J4" t="n">
         <v>16.44142755506243</v>
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>811.9797623848946</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="C5" t="n">
-        <v>811.9797623848946</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="D5" t="n">
-        <v>651.2927635848137</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="E5" t="n">
-        <v>443.6989813239244</v>
+        <v>255.5008658160403</v>
       </c>
       <c r="F5" t="n">
-        <v>236.1051990630351</v>
+        <v>47.90708355515102</v>
       </c>
       <c r="G5" t="n">
         <v>28.51141680214578</v>
@@ -4574,43 +4574,43 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M5" t="n">
-        <v>502.994951044541</v>
+        <v>469.413761616576</v>
       </c>
       <c r="N5" t="n">
-        <v>583.2163723184226</v>
+        <v>672.8764276104736</v>
       </c>
       <c r="O5" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P5" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q5" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R5" t="n">
-        <v>811.9797623848946</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="S5" t="n">
-        <v>811.9797623848946</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="T5" t="n">
-        <v>811.9797623848946</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="U5" t="n">
-        <v>811.9797623848946</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="V5" t="n">
-        <v>811.9797623848946</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="W5" t="n">
-        <v>811.9797623848946</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="X5" t="n">
-        <v>811.9797623848946</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="Y5" t="n">
-        <v>811.9797623848946</v>
+        <v>463.0946480769296</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4620,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>420.6790440492032</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="C6" t="n">
-        <v>246.2260147680761</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="D6" t="n">
-        <v>246.2260147680761</v>
+        <v>571.967438644756</v>
       </c>
       <c r="E6" t="n">
-        <v>246.2260147680761</v>
+        <v>412.7299836393005</v>
       </c>
       <c r="F6" t="n">
-        <v>246.2260147680761</v>
+        <v>266.1954256661855</v>
       </c>
       <c r="G6" t="n">
-        <v>107.4951893506917</v>
+        <v>127.464600248801</v>
       </c>
       <c r="H6" t="n">
         <v>107.4951893506917</v>
@@ -4650,19 +4650,19 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L6" t="n">
-        <v>141.7989876128999</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M6" t="n">
         <v>345.2616536067974</v>
       </c>
       <c r="N6" t="n">
-        <v>548.724319600695</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O6" t="n">
-        <v>570.0333416264414</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P6" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q6" t="n">
         <v>822.0713777531216</v>
@@ -4680,16 +4680,16 @@
         <v>720.9018483060073</v>
       </c>
       <c r="V6" t="n">
-        <v>588.8943810692713</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="W6" t="n">
-        <v>588.8943810692713</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="X6" t="n">
-        <v>588.8943810692713</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="Y6" t="n">
-        <v>588.8943810692713</v>
+        <v>720.9018483060073</v>
       </c>
     </row>
     <row r="7">
@@ -4699,16 +4699,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="C7" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="D7" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="E7" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="F7" t="n">
         <v>16.44142755506243</v>
@@ -4741,34 +4741,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P7" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q7" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R7" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S7" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T7" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U7" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V7" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W7" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X7" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y7" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
     <row r="8">
@@ -4778,40 +4778,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>245.4092504478133</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="C8" t="n">
-        <v>245.4092504478133</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="D8" t="n">
-        <v>245.4092504478133</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="E8" t="n">
-        <v>245.4092504478133</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="F8" t="n">
-        <v>43.96872742349432</v>
+        <v>192.3445302212503</v>
       </c>
       <c r="G8" t="n">
-        <v>28.51141680214578</v>
+        <v>176.8872195999018</v>
       </c>
       <c r="H8" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I8" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J8" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K8" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L8" t="n">
-        <v>299.5322850506434</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M8" t="n">
-        <v>379.753706324525</v>
+        <v>399.9799451336186</v>
       </c>
       <c r="N8" t="n">
         <v>583.2163723184226</v>
@@ -4823,31 +4823,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q8" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R8" t="n">
-        <v>660.5968149695918</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S8" t="n">
-        <v>660.5968149695918</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T8" t="n">
-        <v>660.5968149695918</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U8" t="n">
-        <v>660.5968149695918</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V8" t="n">
-        <v>453.0030327087026</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W8" t="n">
-        <v>453.0030327087026</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X8" t="n">
-        <v>453.0030327087026</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y8" t="n">
-        <v>453.0030327087026</v>
+        <v>822.0713777531216</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>339.8907214957869</v>
+        <v>165.3758372163137</v>
       </c>
       <c r="C9" t="n">
-        <v>165.4376922146599</v>
+        <v>165.3758372163137</v>
       </c>
       <c r="D9" t="n">
-        <v>165.4376922146599</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E9" t="n">
-        <v>165.4376922146599</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F9" t="n">
-        <v>165.4376922146599</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4376922146599</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H9" t="n">
-        <v>106.7410566979059</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I9" t="n">
         <v>16.44142755506243</v>
@@ -4884,49 +4884,49 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K9" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L9" t="n">
-        <v>141.7989876128999</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M9" t="n">
-        <v>345.2616536067974</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="N9" t="n">
-        <v>548.724319600695</v>
+        <v>626.8294255367553</v>
       </c>
       <c r="O9" t="n">
-        <v>639.4279001397708</v>
+        <v>626.8294255367553</v>
       </c>
       <c r="P9" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q9" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R9" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S9" t="n">
-        <v>547.4845037566762</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="T9" t="n">
-        <v>547.4845037566762</v>
+        <v>446.4674385625565</v>
       </c>
       <c r="U9" t="n">
-        <v>547.4845037566762</v>
+        <v>446.4674385625565</v>
       </c>
       <c r="V9" t="n">
-        <v>547.4845037566762</v>
+        <v>446.4674385625565</v>
       </c>
       <c r="W9" t="n">
-        <v>547.4845037566762</v>
+        <v>446.4674385625565</v>
       </c>
       <c r="X9" t="n">
-        <v>339.8907214957869</v>
+        <v>238.8736563016672</v>
       </c>
       <c r="Y9" t="n">
-        <v>339.8907214957869</v>
+        <v>238.8736563016672</v>
       </c>
     </row>
     <row r="10">
@@ -4936,10 +4936,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="C10" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="D10" t="n">
         <v>16.44142755506243</v>
@@ -4987,25 +4987,25 @@
         <v>150.9737180453332</v>
       </c>
       <c r="S10" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T10" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U10" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V10" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W10" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X10" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y10" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
     <row r="11">
@@ -5060,28 +5060,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q11" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R11" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="S11" t="n">
-        <v>614.4775954922324</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="T11" t="n">
-        <v>406.8838132313431</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="U11" t="n">
-        <v>406.8838132313431</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="V11" t="n">
-        <v>406.8838132313431</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="W11" t="n">
-        <v>406.8838132313431</v>
+        <v>396.792197863116</v>
       </c>
       <c r="X11" t="n">
-        <v>406.8838132313431</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="Y11" t="n">
         <v>224.0352098159517</v>
@@ -5094,25 +5094,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>614.4775954922324</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C12" t="n">
-        <v>614.4775954922324</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D12" t="n">
-        <v>614.4775954922324</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E12" t="n">
-        <v>455.2401404867769</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F12" t="n">
-        <v>308.7055825136619</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G12" t="n">
-        <v>169.9747570962774</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H12" t="n">
-        <v>56.60562150385668</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I12" t="n">
         <v>16.44142755506243</v>
@@ -5121,49 +5121,49 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K12" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L12" t="n">
-        <v>345.2616536067974</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M12" t="n">
-        <v>548.724319600695</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="N12" t="n">
-        <v>639.4279001397708</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O12" t="n">
-        <v>639.4279001397708</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P12" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q12" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R12" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S12" t="n">
-        <v>822.0713777531216</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="T12" t="n">
-        <v>822.0713777531216</v>
+        <v>345.2979091154422</v>
       </c>
       <c r="U12" t="n">
-        <v>822.0713777531216</v>
+        <v>137.7041268545529</v>
       </c>
       <c r="V12" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W12" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X12" t="n">
-        <v>614.4775954922324</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y12" t="n">
-        <v>614.4775954922324</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="13">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C14" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D14" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E14" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F14" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G14" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H14" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I14" t="n">
         <v>16.44142755506243</v>
@@ -5282,10 +5282,10 @@
         <v>16.44142755506243</v>
       </c>
       <c r="L14" t="n">
-        <v>196.517279139721</v>
+        <v>176.2910403306274</v>
       </c>
       <c r="M14" t="n">
-        <v>399.9799451336186</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N14" t="n">
         <v>583.2163723184226</v>
@@ -5300,28 +5300,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R14" t="n">
-        <v>670.6884303378189</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S14" t="n">
-        <v>463.0946480769296</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="T14" t="n">
-        <v>463.0946480769296</v>
+        <v>431.628992076841</v>
       </c>
       <c r="U14" t="n">
-        <v>255.5008658160403</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="V14" t="n">
-        <v>255.5008658160403</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W14" t="n">
-        <v>255.5008658160403</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X14" t="n">
-        <v>255.5008658160403</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y14" t="n">
-        <v>255.5008658160403</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="15">
@@ -5331,19 +5331,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>16.44142755506243</v>
+        <v>784.3317048933958</v>
       </c>
       <c r="C15" t="n">
-        <v>16.44142755506243</v>
+        <v>609.8786756122688</v>
       </c>
       <c r="D15" t="n">
-        <v>16.44142755506243</v>
+        <v>460.9442659510175</v>
       </c>
       <c r="E15" t="n">
-        <v>16.44142755506243</v>
+        <v>301.706810945562</v>
       </c>
       <c r="F15" t="n">
-        <v>16.44142755506243</v>
+        <v>155.1722529724469</v>
       </c>
       <c r="G15" t="n">
         <v>16.44142755506243</v>
@@ -5361,16 +5361,16 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L15" t="n">
-        <v>345.2616536067974</v>
+        <v>232.5025681519757</v>
       </c>
       <c r="M15" t="n">
-        <v>548.724319600695</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="N15" t="n">
-        <v>752.1869855945927</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O15" t="n">
-        <v>822.0713777531216</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P15" t="n">
         <v>822.0713777531216</v>
@@ -5382,25 +5382,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S15" t="n">
-        <v>648.6540332037905</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T15" t="n">
-        <v>446.4674385625565</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U15" t="n">
-        <v>238.8736563016672</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V15" t="n">
-        <v>184.6567645751305</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W15" t="n">
-        <v>184.6567645751305</v>
+        <v>784.3317048933958</v>
       </c>
       <c r="X15" t="n">
-        <v>184.6567645751305</v>
+        <v>784.3317048933958</v>
       </c>
       <c r="Y15" t="n">
-        <v>184.6567645751305</v>
+        <v>784.3317048933958</v>
       </c>
     </row>
     <row r="16">
@@ -5489,25 +5489,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C17" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D17" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E17" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F17" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G17" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H17" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
         <v>19.28114311021272</v>
@@ -5534,31 +5534,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S17" t="n">
-        <v>601.5428246748836</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T17" t="n">
-        <v>376.1934816808115</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U17" t="n">
-        <v>231.8830517671884</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="V17" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W17" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X17" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y17" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="18">
@@ -5568,25 +5568,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>19.28114311021272</v>
+        <v>432.9682111954345</v>
       </c>
       <c r="C18" t="n">
-        <v>19.28114311021272</v>
+        <v>258.5151819143075</v>
       </c>
       <c r="D18" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="E18" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="F18" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="G18" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="H18" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I18" t="n">
         <v>19.28114311021272</v>
@@ -5595,22 +5595,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M18" t="n">
-        <v>304.2053859195205</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N18" t="n">
-        <v>542.809531908403</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="O18" t="n">
-        <v>781.4136778972854</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="P18" t="n">
-        <v>964.0571555106362</v>
+        <v>909.0960185696777</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
@@ -5622,22 +5622,22 @@
         <v>689.4702815141908</v>
       </c>
       <c r="T18" t="n">
-        <v>487.2836868729568</v>
+        <v>601.1835482155025</v>
       </c>
       <c r="U18" t="n">
-        <v>259.0600686093459</v>
+        <v>601.1835482155025</v>
       </c>
       <c r="V18" t="n">
-        <v>23.90796037760316</v>
+        <v>601.1835482155025</v>
       </c>
       <c r="W18" t="n">
-        <v>19.28114311021272</v>
+        <v>601.1835482155025</v>
       </c>
       <c r="X18" t="n">
-        <v>19.28114311021272</v>
+        <v>601.1835482155025</v>
       </c>
       <c r="Y18" t="n">
-        <v>19.28114311021272</v>
+        <v>601.1835482155025</v>
       </c>
     </row>
     <row r="19">
@@ -5692,7 +5692,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q19" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R19" t="n">
         <v>19.28114311021272</v>
@@ -5726,25 +5726,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>749.627473042513</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="C20" t="n">
-        <v>506.1786963984129</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="D20" t="n">
-        <v>262.7299197543128</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="E20" t="n">
-        <v>262.7299197543128</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="F20" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="G20" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H20" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I20" t="n">
         <v>19.28114311021272</v>
@@ -5771,31 +5771,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S20" t="n">
-        <v>964.0571555106362</v>
+        <v>700.6811714053606</v>
       </c>
       <c r="T20" t="n">
-        <v>964.0571555106362</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="U20" t="n">
-        <v>964.0571555106362</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="V20" t="n">
-        <v>964.0571555106362</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="W20" t="n">
-        <v>964.0571555106362</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="X20" t="n">
-        <v>964.0571555106362</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="Y20" t="n">
-        <v>749.627473042513</v>
+        <v>475.3318284112885</v>
       </c>
     </row>
     <row r="21">
@@ -5805,43 +5805,43 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>20.03527576299844</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="C21" t="n">
-        <v>20.03527576299844</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="D21" t="n">
-        <v>20.03527576299844</v>
+        <v>463.7839815061678</v>
       </c>
       <c r="E21" t="n">
-        <v>20.03527576299844</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="F21" t="n">
-        <v>20.03527576299844</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>65.60123993063803</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>304.2053859195205</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N21" t="n">
-        <v>542.809531908403</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O21" t="n">
         <v>781.4136778972854</v>
@@ -5859,22 +5859,22 @@
         <v>790.6398109613051</v>
       </c>
       <c r="T21" t="n">
-        <v>726.8597789024521</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U21" t="n">
-        <v>498.6361606388412</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V21" t="n">
-        <v>263.4840524070985</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="W21" t="n">
-        <v>20.03527576299844</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="X21" t="n">
-        <v>20.03527576299844</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="Y21" t="n">
-        <v>20.03527576299844</v>
+        <v>588.4532163200711</v>
       </c>
     </row>
     <row r="22">
@@ -5938,10 +5938,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
         <v>19.28114311021272</v>
@@ -5963,31 +5963,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C23" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D23" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E23" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
-        <v>19.28114311021275</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I23" t="n">
-        <v>19.28114311021275</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J23" t="n">
-        <v>19.28114311021275</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K23" t="n">
         <v>122.2961490211351</v>
@@ -6011,28 +6011,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>942.6594228129348</v>
       </c>
       <c r="S23" t="n">
-        <v>964.0571555106362</v>
+        <v>731.528039392485</v>
       </c>
       <c r="T23" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U23" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="V23" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W23" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X23" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y23" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="24">
@@ -6042,16 +6042,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>394.2008556776262</v>
+        <v>168.215552771464</v>
       </c>
       <c r="C24" t="n">
-        <v>219.7478263964992</v>
+        <v>168.215552771464</v>
       </c>
       <c r="D24" t="n">
-        <v>219.7478263964992</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E24" t="n">
-        <v>60.51037139104366</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
         <v>19.28114311021272</v>
@@ -6072,13 +6072,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M24" t="n">
-        <v>374.6018090363993</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N24" t="n">
-        <v>613.2059550252818</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O24" t="n">
         <v>781.4136778972854</v>
@@ -6090,28 +6090,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S24" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T24" t="n">
-        <v>790.6398109613051</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U24" t="n">
-        <v>562.4161926976942</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V24" t="n">
-        <v>562.4161926976942</v>
+        <v>168.215552771464</v>
       </c>
       <c r="W24" t="n">
-        <v>562.4161926976942</v>
+        <v>168.215552771464</v>
       </c>
       <c r="X24" t="n">
-        <v>562.4161926976942</v>
+        <v>168.215552771464</v>
       </c>
       <c r="Y24" t="n">
-        <v>562.4161926976942</v>
+        <v>168.215552771464</v>
       </c>
     </row>
     <row r="25">
@@ -6166,19 +6166,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R25" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S25" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="T25" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="U25" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="V25" t="n">
         <v>19.28114311021272</v>
@@ -6200,25 +6200,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>569.2254314512334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C26" t="n">
-        <v>569.2254314512334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D26" t="n">
-        <v>569.2254314512334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E26" t="n">
-        <v>569.2254314512334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F26" t="n">
-        <v>569.2254314512334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G26" t="n">
-        <v>325.7766548071333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
-        <v>82.32787816303323</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I26" t="n">
         <v>19.28114311021272</v>
@@ -6251,25 +6251,25 @@
         <v>812.6742080953335</v>
       </c>
       <c r="S26" t="n">
-        <v>812.6742080953335</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T26" t="n">
-        <v>812.6742080953335</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U26" t="n">
-        <v>812.6742080953335</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="V26" t="n">
-        <v>569.2254314512334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W26" t="n">
-        <v>569.2254314512334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X26" t="n">
-        <v>569.2254314512334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y26" t="n">
-        <v>569.2254314512334</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="27">
@@ -6279,19 +6279,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>102.8099852548154</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C27" t="n">
-        <v>102.8099852548154</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D27" t="n">
-        <v>102.8099852548154</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E27" t="n">
-        <v>102.8099852548154</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F27" t="n">
-        <v>102.8099852548154</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G27" t="n">
         <v>19.28114311021272</v>
@@ -6309,7 +6309,7 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>234.810827406191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M27" t="n">
         <v>234.810827406191</v>
@@ -6327,28 +6327,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S27" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T27" t="n">
-        <v>761.8705608694022</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U27" t="n">
-        <v>761.8705608694022</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V27" t="n">
-        <v>761.8705608694022</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W27" t="n">
-        <v>518.4217842253022</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X27" t="n">
-        <v>310.5702840197694</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y27" t="n">
-        <v>102.8099852548154</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="28">
@@ -6358,10 +6358,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C28" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D28" t="n">
         <v>19.28114311021272</v>
@@ -6400,34 +6400,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>151.0645035650224</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R28" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S28" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T28" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U28" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V28" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W28" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6437,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>262.7299197543128</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="C29" t="n">
-        <v>262.7299197543128</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="D29" t="n">
-        <v>262.7299197543128</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="E29" t="n">
-        <v>19.28114311021272</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="F29" t="n">
-        <v>19.28114311021272</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="G29" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H29" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I29" t="n">
         <v>19.28114311021272</v>
@@ -6482,31 +6482,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>953.9655401424092</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="S29" t="n">
-        <v>953.9655401424092</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="T29" t="n">
-        <v>953.9655401424092</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="U29" t="n">
-        <v>953.9655401424092</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="V29" t="n">
-        <v>953.9655401424092</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="W29" t="n">
-        <v>953.9655401424092</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="X29" t="n">
-        <v>749.627473042513</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="Y29" t="n">
-        <v>506.1786963984129</v>
+        <v>718.7806050553886</v>
       </c>
     </row>
     <row r="30">
@@ -6543,16 +6543,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
         <v>473.4149733950735</v>
       </c>
       <c r="N30" t="n">
-        <v>712.019119383956</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O30" t="n">
         <v>712.019119383956</v>
@@ -6567,25 +6567,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T30" t="n">
-        <v>761.8705608694022</v>
+        <v>693.407908243611</v>
       </c>
       <c r="U30" t="n">
-        <v>533.6469426057913</v>
+        <v>693.407908243611</v>
       </c>
       <c r="V30" t="n">
-        <v>353.0295488971563</v>
+        <v>693.407908243611</v>
       </c>
       <c r="W30" t="n">
-        <v>109.5807722530562</v>
+        <v>693.407908243611</v>
       </c>
       <c r="X30" t="n">
-        <v>109.5807722530562</v>
+        <v>485.5564080380782</v>
       </c>
       <c r="Y30" t="n">
-        <v>109.5807722530562</v>
+        <v>277.7961092731243</v>
       </c>
     </row>
     <row r="31">
@@ -6643,10 +6643,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
         <v>19.28114311021272</v>
@@ -6674,28 +6674,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>274.7999090013961</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C32" t="n">
-        <v>274.7999090013961</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D32" t="n">
-        <v>274.7999090013961</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="E32" t="n">
-        <v>274.7999090013961</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F32" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G32" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H32" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I32" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J32" t="n">
         <v>19.28114311021272</v>
@@ -6722,28 +6722,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>954.7294120600181</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>743.5980286395683</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
-        <v>518.2486856454962</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U32" t="n">
-        <v>518.2486856454962</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V32" t="n">
-        <v>518.2486856454962</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W32" t="n">
-        <v>518.2486856454962</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X32" t="n">
-        <v>518.2486856454962</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y32" t="n">
-        <v>274.7999090013961</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="33">
@@ -6753,25 +6753,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>361.6807332628614</v>
+        <v>655.0361258579891</v>
       </c>
       <c r="C33" t="n">
-        <v>361.6807332628614</v>
+        <v>480.5830965768621</v>
       </c>
       <c r="D33" t="n">
-        <v>361.6807332628614</v>
+        <v>331.6486869156108</v>
       </c>
       <c r="E33" t="n">
-        <v>361.6807332628614</v>
+        <v>172.4112319101553</v>
       </c>
       <c r="F33" t="n">
-        <v>361.6807332628614</v>
+        <v>25.87667393704029</v>
       </c>
       <c r="G33" t="n">
-        <v>222.9499078454769</v>
+        <v>25.87667393704029</v>
       </c>
       <c r="H33" t="n">
-        <v>109.5807722530562</v>
+        <v>25.87667393704029</v>
       </c>
       <c r="I33" t="n">
         <v>19.28114311021272</v>
@@ -6789,40 +6789,40 @@
         <v>487.8483949674443</v>
       </c>
       <c r="N33" t="n">
-        <v>712.019119383956</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O33" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P33" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U33" t="n">
-        <v>840.2816181387041</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V33" t="n">
-        <v>605.1295099069614</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W33" t="n">
-        <v>361.6807332628614</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X33" t="n">
-        <v>361.6807332628614</v>
+        <v>655.0361258579891</v>
       </c>
       <c r="Y33" t="n">
-        <v>361.6807332628614</v>
+        <v>655.0361258579891</v>
       </c>
     </row>
     <row r="34">
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
         <v>19.28114311021272</v>
@@ -6889,19 +6889,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="35">
@@ -6911,16 +6911,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>233.7108255783361</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="C35" t="n">
-        <v>233.7108255783361</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="D35" t="n">
-        <v>19.28114311021272</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="E35" t="n">
-        <v>19.28114311021272</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="F35" t="n">
         <v>19.28114311021272</v>
@@ -6956,31 +6956,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T35" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U35" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V35" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="W35" t="n">
-        <v>720.6083788665362</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="X35" t="n">
-        <v>477.1596022224361</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="Y35" t="n">
-        <v>233.7108255783361</v>
+        <v>122.6530896684844</v>
       </c>
     </row>
     <row r="36">
@@ -6990,46 +6990,46 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>548.4453565401495</v>
+        <v>605.0715884066004</v>
       </c>
       <c r="C36" t="n">
-        <v>548.4453565401495</v>
+        <v>430.6185591254734</v>
       </c>
       <c r="D36" t="n">
-        <v>548.4453565401495</v>
+        <v>430.6185591254734</v>
       </c>
       <c r="E36" t="n">
-        <v>389.207901534694</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="F36" t="n">
-        <v>242.673343561579</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G36" t="n">
-        <v>103.9425181441945</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N36" t="n">
-        <v>487.8483949674443</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O36" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P36" t="n">
         <v>894.6625969973069</v>
@@ -7041,25 +7041,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>964.0571555106362</v>
+        <v>833.2952066702114</v>
       </c>
       <c r="T36" t="n">
-        <v>964.0571555106362</v>
+        <v>833.2952066702114</v>
       </c>
       <c r="U36" t="n">
-        <v>964.0571555106362</v>
+        <v>605.0715884066004</v>
       </c>
       <c r="V36" t="n">
-        <v>964.0571555106362</v>
+        <v>605.0715884066004</v>
       </c>
       <c r="W36" t="n">
-        <v>964.0571555106362</v>
+        <v>605.0715884066004</v>
       </c>
       <c r="X36" t="n">
-        <v>756.2056553051034</v>
+        <v>605.0715884066004</v>
       </c>
       <c r="Y36" t="n">
-        <v>548.4453565401495</v>
+        <v>605.0715884066004</v>
       </c>
     </row>
     <row r="37">
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="G37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="H37" t="n">
         <v>829.5248650203655</v>
@@ -7117,28 +7117,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7148,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C38" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D38" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E38" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="F38" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="G38" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="H38" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="I38" t="n">
-        <v>19.28114311021272</v>
+        <v>21.10891692136039</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7202,22 +7202,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T38" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U38" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V38" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W38" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X38" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y38" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="39">
@@ -7227,28 +7227,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>353.7257600495809</v>
+        <v>50.83687180935613</v>
       </c>
       <c r="C39" t="n">
-        <v>179.2727307684539</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D39" t="n">
-        <v>179.2727307684539</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
@@ -7257,46 +7257,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>383.2428491569326</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N39" t="n">
-        <v>542.809531908403</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O39" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P39" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S39" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T39" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U39" t="n">
-        <v>964.0571555106362</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V39" t="n">
-        <v>964.0571555106362</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="W39" t="n">
-        <v>937.5528960401357</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="X39" t="n">
-        <v>729.7013958346029</v>
+        <v>426.8125075943781</v>
       </c>
       <c r="Y39" t="n">
-        <v>521.941097069649</v>
+        <v>219.0522088294242</v>
       </c>
     </row>
     <row r="40">
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="G40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="H40" t="n">
         <v>829.5248650203655</v>
@@ -7375,7 +7375,7 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Y40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="41">
@@ -7430,31 +7430,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q41" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R41" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="S41" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="T41" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="U41" t="n">
-        <v>614.4775954922324</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="V41" t="n">
-        <v>431.628992076841</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="W41" t="n">
-        <v>431.628992076841</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="X41" t="n">
+        <v>396.792197863116</v>
+      </c>
+      <c r="Y41" t="n">
         <v>224.0352098159517</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="42">
@@ -7464,22 +7464,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>406.8838132313431</v>
+        <v>175.6788825605179</v>
       </c>
       <c r="C42" t="n">
-        <v>406.8838132313431</v>
+        <v>175.6788825605179</v>
       </c>
       <c r="D42" t="n">
-        <v>406.8838132313431</v>
+        <v>175.6788825605179</v>
       </c>
       <c r="E42" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F42" t="n">
-        <v>260.349255258228</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G42" t="n">
-        <v>121.6184298408435</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H42" t="n">
         <v>16.44142755506243</v>
@@ -7491,49 +7491,49 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K42" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L42" t="n">
-        <v>345.2616536067974</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M42" t="n">
-        <v>345.2616536067974</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="N42" t="n">
-        <v>435.9652341458732</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="O42" t="n">
-        <v>639.4279001397708</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P42" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q42" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R42" t="n">
-        <v>822.0713777531216</v>
+        <v>793.0530417235304</v>
       </c>
       <c r="S42" t="n">
-        <v>822.0713777531216</v>
+        <v>793.0530417235304</v>
       </c>
       <c r="T42" t="n">
-        <v>822.0713777531216</v>
+        <v>590.8664470822965</v>
       </c>
       <c r="U42" t="n">
-        <v>822.0713777531216</v>
+        <v>590.8664470822965</v>
       </c>
       <c r="V42" t="n">
-        <v>822.0713777531216</v>
+        <v>383.2726648214073</v>
       </c>
       <c r="W42" t="n">
-        <v>822.0713777531216</v>
+        <v>383.2726648214073</v>
       </c>
       <c r="X42" t="n">
-        <v>614.4775954922324</v>
+        <v>175.6788825605179</v>
       </c>
       <c r="Y42" t="n">
-        <v>406.8838132313431</v>
+        <v>175.6788825605179</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L43" t="n">
-        <v>714.8532122705639</v>
+        <v>43.75555256277541</v>
       </c>
       <c r="M43" t="n">
-        <v>754.041250462786</v>
+        <v>82.94359075499759</v>
       </c>
       <c r="N43" t="n">
-        <v>797.7321011182223</v>
+        <v>126.6344414104339</v>
       </c>
       <c r="O43" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="P43" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q43" t="n">
-        <v>822.0713777531216</v>
+        <v>63.94135112442973</v>
       </c>
       <c r="R43" t="n">
-        <v>687.5390872628509</v>
+        <v>63.94135112442973</v>
       </c>
       <c r="S43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="T43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="44">
@@ -7622,16 +7622,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>396.792197863116</v>
+        <v>431.628992076841</v>
       </c>
       <c r="C44" t="n">
+        <v>431.628992076841</v>
+      </c>
+      <c r="D44" t="n">
+        <v>431.628992076841</v>
+      </c>
+      <c r="E44" t="n">
         <v>224.0352098159517</v>
-      </c>
-      <c r="D44" t="n">
-        <v>224.0352098159517</v>
-      </c>
-      <c r="E44" t="n">
-        <v>16.44142755506243</v>
       </c>
       <c r="F44" t="n">
         <v>16.44142755506243</v>
@@ -7649,10 +7649,10 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K44" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L44" t="n">
-        <v>176.2910403306274</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M44" t="n">
         <v>379.753706324525</v>
@@ -7667,31 +7667,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q44" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R44" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S44" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T44" t="n">
-        <v>604.3859801240053</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U44" t="n">
-        <v>604.3859801240053</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="V44" t="n">
-        <v>604.3859801240053</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="W44" t="n">
-        <v>604.3859801240053</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="X44" t="n">
-        <v>396.792197863116</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="Y44" t="n">
-        <v>396.792197863116</v>
+        <v>431.628992076841</v>
       </c>
     </row>
     <row r="45">
@@ -7701,16 +7701,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>446.2622584721643</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C45" t="n">
-        <v>271.8092291910373</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D45" t="n">
-        <v>122.874819529786</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E45" t="n">
-        <v>122.874819529786</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F45" t="n">
         <v>16.44142755506243</v>
@@ -7731,13 +7731,13 @@
         <v>16.44142755506243</v>
       </c>
       <c r="L45" t="n">
-        <v>163.1080096386462</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="M45" t="n">
-        <v>163.1080096386462</v>
+        <v>219.90409354896</v>
       </c>
       <c r="N45" t="n">
-        <v>366.5706756325438</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="O45" t="n">
         <v>570.0333416264414</v>
@@ -7761,16 +7761,16 @@
         <v>822.0713777531216</v>
       </c>
       <c r="V45" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W45" t="n">
-        <v>822.0713777531216</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="X45" t="n">
-        <v>614.4775954922324</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="Y45" t="n">
-        <v>614.4775954922324</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="46">
@@ -7780,7 +7780,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>822.0713777531216</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="C46" t="n">
         <v>687.5390872628509</v>
@@ -7843,13 +7843,13 @@
         <v>822.0713777531216</v>
       </c>
       <c r="W46" t="n">
-        <v>822.0713777531216</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="X46" t="n">
-        <v>822.0713777531216</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="Y46" t="n">
-        <v>822.0713777531216</v>
+        <v>687.5390872628509</v>
       </c>
     </row>
   </sheetData>
@@ -7985,16 +7985,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
-        <v>311.3779718877592</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N2" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O2" t="n">
-        <v>380.8001812627454</v>
+        <v>346.8797879011645</v>
       </c>
       <c r="P2" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8058,25 +8058,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M3" t="n">
-        <v>163.6582985944894</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N3" t="n">
-        <v>336.8595565216137</v>
+        <v>328.5558052311782</v>
       </c>
       <c r="O3" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8222,16 +8222,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>435.8640776655532</v>
+        <v>401.9436843039723</v>
       </c>
       <c r="N5" t="n">
-        <v>310.4448022570774</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O5" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8298,22 +8298,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M6" t="n">
-        <v>347.6518783602987</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>336.8595565216137</v>
+        <v>222.9614904056321</v>
       </c>
       <c r="O6" t="n">
-        <v>164.1205091169155</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8453,16 +8453,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>311.3779718877592</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N8" t="n">
-        <v>434.9309080348713</v>
+        <v>414.5003637832617</v>
       </c>
       <c r="O8" t="n">
         <v>380.8001812627454</v>
@@ -8532,10 +8532,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M9" t="n">
         <v>347.6518783602987</v>
@@ -8544,13 +8544,13 @@
         <v>336.8595565216137</v>
       </c>
       <c r="O9" t="n">
-        <v>234.2160227667432</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>261.0929869123474</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8769,25 +8769,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
         <v>344.0722242181546</v>
       </c>
       <c r="M12" t="n">
-        <v>347.6518783602987</v>
+        <v>290.282096632709</v>
       </c>
       <c r="N12" t="n">
-        <v>222.9614904056321</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8930,13 +8930,13 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>397.2306702988408</v>
       </c>
       <c r="M14" t="n">
         <v>435.8640776655532</v>
       </c>
       <c r="N14" t="n">
-        <v>414.5003637832617</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
@@ -9009,19 +9009,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>344.0722242181546</v>
+        <v>230.174158102173</v>
       </c>
       <c r="M15" t="n">
         <v>347.6518783602987</v>
       </c>
       <c r="N15" t="n">
-        <v>336.8595565216137</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>213.1865395540696</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -9243,13 +9243,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>303.312501347746</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
         <v>372.3560009609923</v>
@@ -9261,7 +9261,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>195.4980740263837</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9480,19 +9480,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>185.3423563661624</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>372.3560009609923</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O21" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9720,16 +9720,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
-        <v>312.5030352242461</v>
+        <v>303.774711870172</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
@@ -9957,10 +9957,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>356.2611315939937</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N27" t="n">
         <v>372.3560009609923</v>
@@ -10191,19 +10191,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>368.5691090902119</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
@@ -10437,16 +10437,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>357.7767872515269</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>198.1125443848066</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10665,7 +10665,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10674,13 +10674,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>369.031319612638</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10905,22 +10905,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>292.5201795090609</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
-        <v>383.6105333221035</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11139,25 +11139,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
         <v>344.0722242181546</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N42" t="n">
-        <v>222.9614904056321</v>
+        <v>279.489774794024</v>
       </c>
       <c r="O42" t="n">
-        <v>348.1140888827248</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11297,13 +11297,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>397.2306702988408</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>435.8640776655532</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N44" t="n">
         <v>434.9309080348713</v>
@@ -11379,16 +11379,16 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>286.7024424905649</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N45" t="n">
         <v>336.8595565216137</v>
       </c>
       <c r="O45" t="n">
-        <v>348.1140888827248</v>
+        <v>290.7443071551351</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
@@ -23300,31 +23300,31 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>3.502225147964936</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>17.57800512585095</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>122.2344140318545</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>198.7016825117764</v>
       </c>
       <c r="Y11" t="n">
-        <v>205.2178212748161</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23343,19 +23343,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>49.63408084210877</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
         <v>0.7465913262578567</v>
@@ -23382,25 +23382,25 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>112.7505148429297</v>
       </c>
       <c r="W12" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>351.5828422233929</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -23513,7 +23513,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>4.958045132125505</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -23540,19 +23540,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
         <v>3.502225147964936</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>42.07573218289394</v>
       </c>
       <c r="U14" t="n">
         <v>45.82780846955609</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>122.2344140318545</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23571,22 +23571,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>112.2354442364965</v>
@@ -23622,19 +23622,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>179.1258643401539</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>214.332707029791</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -23750,7 +23750,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -23774,7 +23774,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -23786,10 +23786,10 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>108.4783272933497</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>225.414031377446</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23808,13 +23808,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
@@ -23829,7 +23829,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -23862,16 +23862,16 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>112.7608627291202</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>247.1144340662031</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -23932,10 +23932,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>44.10642379180146</v>
+        <v>130.2684670434958</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
@@ -23972,13 +23972,13 @@
         <v>124.2586028933485</v>
       </c>
       <c r="D20" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>415.302737515135</v>
@@ -23987,7 +23987,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>11.94928935461252</v>
@@ -24011,16 +24011,16 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>108.137662477717</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>251.3456529078365</v>
@@ -24035,7 +24035,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>173.9525530126116</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24051,16 +24051,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>24.02252309887449</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>112.2354442364965</v>
@@ -24069,7 +24069,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24099,16 +24099,16 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>137.0224969565572</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
@@ -24178,13 +24178,13 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T22" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U22" t="n">
         <v>286.3190293564909</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24203,25 +24203,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C23" t="n">
-        <v>152.9875061275656</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
         <v>210.4758895704059</v>
@@ -24251,16 +24251,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>128.6853625704253</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -24282,19 +24282,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>104.2522763953612</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
         <v>137.3435171632106</v>
@@ -24330,19 +24330,19 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>142.8645164699222</v>
       </c>
       <c r="W24" t="n">
         <v>251.6949831609196</v>
@@ -24406,7 +24406,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>177.2933913771695</v>
@@ -24421,7 +24421,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V25" t="n">
-        <v>118.95067573846</v>
+        <v>205.1127189901543</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -24455,13 +24455,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
-        <v>148.0596218681136</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
         <v>11.94928935461252</v>
@@ -24491,16 +24491,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V26" t="n">
-        <v>86.73796959247585</v>
+        <v>215.4233321629012</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -24534,7 +24534,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>54.64996344005395</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
         <v>112.2354442364965</v>
@@ -24567,28 +24567,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>10.68069428326055</v>
+        <v>247.1144340662031</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24604,7 +24604,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>18.14994616795082</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24640,13 +24640,13 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q28" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>177.2933913771695</v>
+        <v>130.2684670434958</v>
       </c>
       <c r="S28" t="n">
         <v>224.0165980369723</v>
@@ -24677,7 +24677,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -24686,19 +24686,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H29" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I29" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>11.94928935461252</v>
@@ -24722,10 +24722,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>148.0596218681135</v>
       </c>
       <c r="S29" t="n">
         <v>209.0200695862453</v>
@@ -24743,7 +24743,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>167.4364142495718</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>145.2236497783945</v>
@@ -24756,7 +24756,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
@@ -24807,25 +24807,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>103.9051450043045</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>53.98936737787662</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24883,13 +24883,13 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S31" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T31" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U31" t="n">
         <v>286.3190293564909</v>
@@ -24923,7 +24923,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>169.6449844288197</v>
       </c>
       <c r="F32" t="n">
         <v>165.8617568640524</v>
@@ -24932,13 +24932,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24962,19 +24962,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>140.6346519250378</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -24983,7 +24983,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -24996,25 +24996,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>82.86705733285578</v>
       </c>
       <c r="J33" t="n">
         <v>0.7465913262578567</v>
@@ -25041,7 +25041,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>171.6831711038378</v>
@@ -25050,16 +25050,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>103.403600082762</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -25093,10 +25093,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I34" t="n">
-        <v>115.622687458563</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K34" t="n">
         <v>22.26949182588285</v>
@@ -25129,7 +25129,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U34" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25157,13 +25157,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>142.3976559772408</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>304.5378186490225</v>
       </c>
       <c r="G35" t="n">
         <v>415.302737515135</v>
@@ -25196,16 +25196,16 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>251.3456529078365</v>
@@ -25217,10 +25217,10 @@
         <v>108.226679839754</v>
       </c>
       <c r="X35" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25233,7 +25233,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
@@ -25242,19 +25242,19 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>29.16727427911236</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25281,13 +25281,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>42.22884175181727</v>
       </c>
       <c r="T36" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -25296,10 +25296,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25327,7 +25327,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H37" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207158</v>
       </c>
       <c r="I37" t="n">
         <v>155.4504749272583</v>
@@ -25357,7 +25357,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
-        <v>44.10642379180149</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S37" t="n">
         <v>224.0165980369723</v>
@@ -25409,10 +25409,10 @@
         <v>98.46051323810809</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>10.13979328157633</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25442,7 +25442,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
         <v>251.3456529078365</v>
@@ -25470,13 +25470,13 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>141.4683275761638</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
@@ -25491,7 +25491,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25515,7 +25515,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>171.6831711038378</v>
@@ -25524,13 +25524,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>225.4557662851241</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -25564,7 +25564,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H40" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207158</v>
       </c>
       <c r="I40" t="n">
         <v>155.4504749272583</v>
@@ -25615,7 +25615,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>85.3976857667268</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25625,7 +25625,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -25670,7 +25670,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>149.8691179411497</v>
@@ -25685,7 +25685,7 @@
         <v>45.82780846955609</v>
       </c>
       <c r="V41" t="n">
-        <v>146.7321410888975</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -25694,7 +25694,7 @@
         <v>164.2132562401886</v>
       </c>
       <c r="Y41" t="n">
-        <v>180.7200942177732</v>
+        <v>215.208520489361</v>
       </c>
     </row>
     <row r="42">
@@ -25713,16 +25713,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>8.110211973573186</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
         <v>89.39663285141508</v>
@@ -25752,19 +25752,19 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>71.42968148334786</v>
       </c>
       <c r="S42" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W42" t="n">
         <v>251.6949831609196</v>
@@ -25773,7 +25773,7 @@
         <v>0.2551407651970692</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25828,13 +25828,13 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q43" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>44.10642379180149</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S43" t="n">
-        <v>224.0165980369723</v>
+        <v>176.9916737032986</v>
       </c>
       <c r="T43" t="n">
         <v>227.9455894282815</v>
@@ -25865,7 +25865,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>194.2434736043149</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -25874,7 +25874,7 @@
         <v>176.4125256339814</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G44" t="n">
         <v>415.302737515135</v>
@@ -25907,7 +25907,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
         <v>149.8691179411497</v>
@@ -25916,10 +25916,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>17.57800512585095</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3456529078365</v>
+        <v>70.32553552659914</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25928,10 +25928,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="45">
@@ -25941,19 +25941,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>39.70015433840754</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
         <v>137.3435171632106</v>
@@ -26001,16 +26001,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X45" t="n">
-        <v>0.2551407651970692</v>
+        <v>24.75286782224003</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="46">
@@ -26023,7 +26023,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>34.05985351325984</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26083,7 +26083,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>407391.3724271236</v>
+        <v>407391.3724271237</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>407391.3724271237</v>
+        <v>407391.3724271235</v>
       </c>
     </row>
     <row r="10">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>407391.3724271237</v>
+        <v>407391.3724271236</v>
       </c>
     </row>
     <row r="14">
@@ -26317,7 +26317,7 @@
         <v>533677.1504117841</v>
       </c>
       <c r="D2" t="n">
-        <v>533677.1504117842</v>
+        <v>533677.150411784</v>
       </c>
       <c r="E2" t="n">
         <v>205084.9343854111</v>
@@ -26341,13 +26341,13 @@
         <v>216008.8742907321</v>
       </c>
       <c r="L2" t="n">
-        <v>216008.8742907321</v>
+        <v>216008.874290732</v>
       </c>
       <c r="M2" t="n">
-        <v>216008.8742907321</v>
+        <v>216008.874290732</v>
       </c>
       <c r="N2" t="n">
-        <v>216008.8742907321</v>
+        <v>216008.874290732</v>
       </c>
       <c r="O2" t="n">
         <v>205084.9343854111</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>329219.0235480686</v>
+        <v>328386.1670003451</v>
       </c>
       <c r="C4" t="n">
-        <v>329219.0235480686</v>
+        <v>328386.1670003452</v>
       </c>
       <c r="D4" t="n">
-        <v>329219.0235480686</v>
+        <v>328386.1670003451</v>
       </c>
       <c r="E4" t="n">
-        <v>40681.1494006205</v>
+        <v>39848.29285289707</v>
       </c>
       <c r="F4" t="n">
-        <v>40681.1494006205</v>
+        <v>39848.29285289707</v>
       </c>
       <c r="G4" t="n">
-        <v>42895.25425991549</v>
+        <v>42017.42535589615</v>
       </c>
       <c r="H4" t="n">
-        <v>42895.25425991549</v>
+        <v>42017.42535589615</v>
       </c>
       <c r="I4" t="n">
-        <v>42895.25425991549</v>
+        <v>42017.42535589614</v>
       </c>
       <c r="J4" t="n">
-        <v>42895.25425991549</v>
+        <v>42017.42535589615</v>
       </c>
       <c r="K4" t="n">
-        <v>42895.25425991549</v>
+        <v>42017.42535589616</v>
       </c>
       <c r="L4" t="n">
-        <v>42895.25425991549</v>
+        <v>42017.42535589615</v>
       </c>
       <c r="M4" t="n">
-        <v>42895.25425991549</v>
+        <v>42017.42535589614</v>
       </c>
       <c r="N4" t="n">
-        <v>42895.2542599155</v>
+        <v>42017.42535589614</v>
       </c>
       <c r="O4" t="n">
-        <v>40681.1494006205</v>
+        <v>39848.29285289707</v>
       </c>
       <c r="P4" t="n">
-        <v>40681.1494006205</v>
+        <v>39848.29285289707</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>89461.28534017844</v>
+        <v>90294.14188790193</v>
       </c>
       <c r="C6" t="n">
-        <v>158335.041921868</v>
+        <v>159167.8984695915</v>
       </c>
       <c r="D6" t="n">
-        <v>158335.0419218681</v>
+        <v>159167.8984695914</v>
       </c>
       <c r="E6" t="n">
-        <v>151908.3000429432</v>
+        <v>152741.1565906665</v>
       </c>
       <c r="F6" t="n">
-        <v>151908.3000429432</v>
+        <v>152741.1565906665</v>
       </c>
       <c r="G6" t="n">
-        <v>148730.9082928878</v>
+        <v>149608.7371969071</v>
       </c>
       <c r="H6" t="n">
-        <v>158459.9512670549</v>
+        <v>159337.7801710743</v>
       </c>
       <c r="I6" t="n">
-        <v>158459.9512670549</v>
+        <v>159337.7801710743</v>
       </c>
       <c r="J6" t="n">
-        <v>104687.4403768455</v>
+        <v>105565.2692808648</v>
       </c>
       <c r="K6" t="n">
-        <v>158459.9512670549</v>
+        <v>159337.7801710743</v>
       </c>
       <c r="L6" t="n">
-        <v>158459.951267055</v>
+        <v>159337.7801710742</v>
       </c>
       <c r="M6" t="n">
-        <v>158459.9512670549</v>
+        <v>159337.7801710742</v>
       </c>
       <c r="N6" t="n">
-        <v>158459.9512670549</v>
+        <v>159337.7801710742</v>
       </c>
       <c r="O6" t="n">
-        <v>151908.3000429431</v>
+        <v>152741.1565906666</v>
       </c>
       <c r="P6" t="n">
-        <v>151908.3000429431</v>
+        <v>152741.1565906665</v>
       </c>
     </row>
   </sheetData>
@@ -27385,19 +27385,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>176.4125256339814</v>
       </c>
       <c r="F2" t="n">
         <v>201.358201303431</v>
       </c>
       <c r="G2" t="n">
-        <v>244.2733193484424</v>
+        <v>234.2826201338976</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>4.958045132125505</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -27421,7 +27421,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
@@ -27455,10 +27455,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -27476,7 +27476,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>15.88770561275489</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27509,13 +27509,13 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>225.732550405684</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -27537,7 +27537,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>130.1404743650391</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27552,13 +27552,13 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>162.2271725074396</v>
+        <v>31.76164565717806</v>
       </c>
       <c r="I4" t="n">
         <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
         <v>22.26949182588285</v>
@@ -27619,7 +27619,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>195.6029128086029</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>176.4125256339814</v>
@@ -27628,7 +27628,7 @@
         <v>201.358201303431</v>
       </c>
       <c r="G5" t="n">
-        <v>209.7848930768546</v>
+        <v>396.1010274296599</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -27658,13 +27658,13 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
@@ -27692,25 +27692,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>92.46572744736817</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27752,7 +27752,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>102.1131945850566</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -27783,7 +27783,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756325</v>
       </c>
       <c r="G7" t="n">
         <v>167.9909793584588</v>
@@ -27813,7 +27813,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
@@ -27828,7 +27828,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
-        <v>155.8535025062294</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27853,28 +27853,28 @@
         <v>177.2159972252002</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>176.4125256339814</v>
       </c>
       <c r="F8" t="n">
-        <v>207.4499279476357</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>180.6334679913762</v>
       </c>
       <c r="I8" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27895,10 +27895,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -27910,7 +27910,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27929,13 +27929,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>93.77034275536734</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -27947,10 +27947,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>54.12577507491005</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -27977,13 +27977,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
@@ -28014,7 +28014,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>15.42850543284436</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28059,7 +28059,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>90.82963045160426</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
         <v>227.9455894282815</v>
@@ -34705,16 +34705,16 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N2" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O2" t="n">
-        <v>150.7019698410586</v>
+        <v>116.7815764794778</v>
       </c>
       <c r="P2" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M3" t="n">
-        <v>21.52426467247106</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N3" t="n">
-        <v>205.5178444382804</v>
+        <v>197.2140931478448</v>
       </c>
       <c r="O3" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34942,16 +34942,16 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
+        <v>171.5974510766996</v>
+      </c>
+      <c r="N5" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="N5" t="n">
-        <v>81.03173866048648</v>
       </c>
       <c r="O5" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P5" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35018,22 +35018,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>91.61977832229879</v>
+      </c>
+      <c r="O6" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="N6" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="O6" t="n">
-        <v>21.52426467247106</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35173,16 +35173,16 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N8" t="n">
-        <v>205.5178444382804</v>
+        <v>185.0873001866707</v>
       </c>
       <c r="O8" t="n">
         <v>150.7019698410586</v>
@@ -35252,10 +35252,10 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M9" t="n">
         <v>205.5178444382804</v>
@@ -35264,13 +35264,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O9" t="n">
-        <v>91.61977832229879</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>127.1185794980172</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35489,25 +35489,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="M12" t="n">
+        <v>148.1480627106907</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="N12" t="n">
-        <v>91.61977832229879</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35650,13 +35650,13 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>181.8947995804632</v>
+        <v>161.4642553288535</v>
       </c>
       <c r="M14" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N14" t="n">
-        <v>185.0873001866707</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O14" t="n">
         <v>150.7019698410586</v>
@@ -35729,19 +35729,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>205.5178444382804</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="M15" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="O15" t="n">
-        <v>70.5902951096252</v>
-      </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35893,7 +35893,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N17" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O17" t="n">
         <v>150.7019698410586</v>
@@ -35963,13 +35963,13 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>161.1784674257276</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>241.0142888776591</v>
@@ -35981,7 +35981,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36200,19 +36200,19 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>46.78797658628819</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>184.4883612256069</v>
@@ -36440,16 +36440,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
-        <v>169.9067907798016</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="P24" t="n">
         <v>184.4883612256069</v>
@@ -36677,10 +36677,10 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
         <v>217.7067518141195</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>241.0142888776591</v>
@@ -36911,19 +36911,19 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>226.4350751681936</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>184.4883612256069</v>
@@ -37157,16 +37157,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="P33" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37385,7 +37385,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
         <v>232.285965523585</v>
@@ -37394,13 +37394,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>226.4350751681936</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>70.09551364982758</v>
@@ -37549,7 +37549,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M38" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N38" t="n">
         <v>207.9338608153932</v>
@@ -37625,22 +37625,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>161.1784674257276</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37859,25 +37859,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N42" t="n">
-        <v>91.61977832229879</v>
+        <v>148.1480627106907</v>
       </c>
       <c r="O42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38017,13 +38017,13 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L44" t="n">
-        <v>161.4642553288535</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="N44" t="n">
         <v>205.5178444382804</v>
@@ -38099,16 +38099,16 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>148.1480627106907</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N45" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O45" t="n">
-        <v>205.5178444382804</v>
+        <v>148.1480627106907</v>
       </c>
       <c r="P45" t="n">
         <v>184.4883612256069</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_5_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_5_26.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1220224.596025719</v>
+        <v>1222287.074574623</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1225477.018443406</v>
+        <v>1151840.91874218</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14829673.35797656</v>
+        <v>14661612.74404854</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6195795.197173305</v>
+        <v>6250937.200713097</v>
       </c>
     </row>
     <row r="11">
@@ -656,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="E2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>205.5178444382804</v>
+        <v>9.891109467671336</v>
       </c>
       <c r="G2" t="n">
-        <v>181.0201173812374</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -680,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -701,13 +703,13 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -735,10 +737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -753,10 +755,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>73.50892723866019</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -783,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>46.38724422570589</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -795,7 +797,7 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -832,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -859,13 +861,13 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>23.44046883036203</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -902,13 +904,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>205.5178444382804</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>19.20171008547518</v>
+        <v>227.4128599785995</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -917,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -938,25 +940,25 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>205.5178444382804</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -978,19 +980,19 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>19.76971678912829</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
@@ -1020,16 +1022,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1038,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>177.6799502220364</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1063,43 +1065,43 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1130,31 +1132,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>15.30273751513505</v>
+        <v>183.4693513325733</v>
       </c>
       <c r="H8" t="n">
-        <v>158.841334124391</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1175,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1187,10 +1189,10 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1209,7 +1211,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>72.7628408945</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1233,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1263,19 +1265,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
-        <v>205.5178444382804</v>
+        <v>148.497753323051</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1294,49 +1296,49 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1367,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>205.5178444382804</v>
+        <v>72.47049842454879</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1376,13 +1378,13 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1391,7 +1393,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1415,10 +1417,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1427,13 +1429,13 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>171.0294181666926</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1461,16 +1463,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1497,16 +1499,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>63.82415468811691</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>205.5178444382804</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>120.0500723064956</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -1515,7 +1517,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -1546,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>17.55829564281238</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="J13" t="n">
         <v>93.35918011667277</v>
@@ -1613,16 +1615,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1686,28 +1688,28 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>71.04758922419722</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1731,22 +1733,22 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>37.36227613112857</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1783,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>17.55829564281238</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="J16" t="n">
         <v>93.35918011667277</v>
@@ -1886,7 +1888,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>149.8691179411497</v>
@@ -1901,7 +1903,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="V17" t="n">
-        <v>102.3382270926889</v>
+        <v>112.3289263072337</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1920,7 +1922,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>172.7084989883157</v>
@@ -1929,16 +1931,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>85.72024486005427</v>
       </c>
       <c r="I18" t="n">
         <v>89.39663285141508</v>
@@ -1968,13 +1970,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>87.40386596570143</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -2044,10 +2046,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2056,7 +2058,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2078,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I20" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2131,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>100.8824071085284</v>
+        <v>52.42556848774752</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2160,19 +2162,19 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>123.4225424657643</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2211,19 +2213,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>159.2222148998135</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2251,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2296,7 +2298,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2315,31 +2317,31 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>200.3360962888296</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2363,16 +2365,16 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>21.18375537072436</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2397,22 +2399,22 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2442,19 +2444,19 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>89.93607067950306</v>
+        <v>62.88143347497289</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -2518,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -2533,7 +2535,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2542,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
     </row>
     <row r="26">
@@ -2552,10 +2554,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2597,23 +2599,23 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V26" t="n">
-        <v>112.3289263072337</v>
-      </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
@@ -2621,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="27">
@@ -2631,13 +2633,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>36.40754942051851</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -2649,13 +2651,13 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2679,28 +2681,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>4.580549094716531</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2755,10 +2757,10 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2770,7 +2772,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2801,64 +2803,64 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H29" t="n">
+      <c r="V29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="I29" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>1.809496073036132</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>3.26531605719669</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2868,13 +2870,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -2883,13 +2885,13 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2919,10 +2921,10 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>96.25958369051713</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -2931,13 +2933,13 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>203.7523954674333</v>
       </c>
     </row>
     <row r="31">
@@ -2956,7 +2958,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2989,7 +2991,7 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -3001,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3035,67 +3037,67 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="33">
@@ -3108,16 +3110,16 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3126,7 +3128,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>6.529575518559294</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>50.05769526855297</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -3165,16 +3167,16 @@
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3235,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3269,13 +3271,13 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="F35" t="n">
-        <v>102.3382270926889</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -3308,16 +3310,16 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3332,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="36">
@@ -3345,28 +3347,28 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>106.0644964958682</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3393,19 +3395,19 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>129.4543293520206</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3439,49 +3441,49 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>0</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3503,10 +3505,10 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E38" t="n">
         <v>241.0142888776591</v>
@@ -3515,58 +3517,58 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0</v>
+      </c>
+      <c r="X38" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H38" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I38" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J38" t="n">
-        <v>1.809496073036188</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0</v>
-      </c>
-      <c r="V38" t="n">
-        <v>0</v>
-      </c>
-      <c r="W38" t="n">
-        <v>0</v>
-      </c>
-      <c r="X38" t="n">
-        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3579,25 +3581,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>31.24017141215197</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>116.8557422159254</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3627,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -3636,19 +3638,19 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3658,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3676,7 +3678,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3737,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3782,19 +3784,19 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>205.5178444382804</v>
+        <v>112.3289263072337</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3803,10 +3805,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>171.0294181666926</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3816,13 +3818,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
@@ -3864,28 +3866,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>28.72815266929527</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>205.5178444382804</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>85.22343841471898</v>
       </c>
     </row>
     <row r="43">
@@ -3895,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3940,13 +3942,13 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>47.02492433367362</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3974,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3983,16 +3985,16 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>21.18375537072436</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4043,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4056,7 +4058,7 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4074,10 +4076,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4101,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -4110,19 +4112,19 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>133.8354120310577</v>
       </c>
       <c r="V45" t="n">
-        <v>205.5178444382804</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.5178444382804</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -4192,10 +4194,10 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>614.4775954922324</v>
+        <v>149.9054410655621</v>
       </c>
       <c r="C2" t="n">
-        <v>614.4775954922324</v>
+        <v>95.85238145955221</v>
       </c>
       <c r="D2" t="n">
-        <v>614.4775954922324</v>
+        <v>41.79932185354235</v>
       </c>
       <c r="E2" t="n">
-        <v>406.8838132313431</v>
+        <v>41.79932185354235</v>
       </c>
       <c r="F2" t="n">
-        <v>199.2900309704538</v>
+        <v>31.80830218922787</v>
       </c>
       <c r="G2" t="n">
-        <v>16.44142755506243</v>
+        <v>16.35099156787933</v>
       </c>
       <c r="H2" t="n">
-        <v>16.44142755506243</v>
+        <v>16.35099156787933</v>
       </c>
       <c r="I2" t="n">
-        <v>16.44142755506243</v>
+        <v>16.35099156787933</v>
       </c>
       <c r="J2" t="n">
-        <v>16.44142755506243</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="K2" t="n">
-        <v>119.4564334659848</v>
+        <v>57.25840604064623</v>
       </c>
       <c r="L2" t="n">
-        <v>299.5322850506434</v>
+        <v>110.2358097604965</v>
       </c>
       <c r="M2" t="n">
-        <v>502.994951044541</v>
+        <v>110.2358097604965</v>
       </c>
       <c r="N2" t="n">
-        <v>706.4576170384386</v>
+        <v>110.2358097604965</v>
       </c>
       <c r="O2" t="n">
-        <v>822.0713777531216</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="P2" t="n">
-        <v>822.0713777531216</v>
+        <v>214.050116039799</v>
       </c>
       <c r="Q2" t="n">
-        <v>822.0713777531216</v>
+        <v>203.9585006715719</v>
       </c>
       <c r="R2" t="n">
-        <v>822.0713777531216</v>
+        <v>203.9585006715719</v>
       </c>
       <c r="S2" t="n">
-        <v>614.4775954922324</v>
+        <v>203.9585006715719</v>
       </c>
       <c r="T2" t="n">
-        <v>614.4775954922324</v>
+        <v>203.9585006715719</v>
       </c>
       <c r="U2" t="n">
-        <v>614.4775954922324</v>
+        <v>203.9585006715719</v>
       </c>
       <c r="V2" t="n">
-        <v>614.4775954922324</v>
+        <v>203.9585006715719</v>
       </c>
       <c r="W2" t="n">
-        <v>614.4775954922324</v>
+        <v>203.9585006715719</v>
       </c>
       <c r="X2" t="n">
-        <v>614.4775954922324</v>
+        <v>203.9585006715719</v>
       </c>
       <c r="Y2" t="n">
-        <v>614.4775954922324</v>
+        <v>203.9585006715719</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>379.2691667366082</v>
+        <v>59.08819457959154</v>
       </c>
       <c r="C3" t="n">
-        <v>204.8161374554811</v>
+        <v>59.08819457959154</v>
       </c>
       <c r="D3" t="n">
-        <v>204.8161374554811</v>
+        <v>59.08819457959154</v>
       </c>
       <c r="E3" t="n">
-        <v>204.8161374554811</v>
+        <v>59.08819457959154</v>
       </c>
       <c r="F3" t="n">
-        <v>204.8161374554811</v>
+        <v>59.08819457959154</v>
       </c>
       <c r="G3" t="n">
-        <v>204.8161374554811</v>
+        <v>59.08819457959154</v>
       </c>
       <c r="H3" t="n">
-        <v>91.44700186306046</v>
+        <v>59.08819457959154</v>
       </c>
       <c r="I3" t="n">
-        <v>17.19556020784815</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="J3" t="n">
-        <v>16.44142755506243</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="K3" t="n">
-        <v>16.44142755506243</v>
+        <v>57.25840604064623</v>
       </c>
       <c r="L3" t="n">
-        <v>219.90409354896</v>
+        <v>110.2358097604965</v>
       </c>
       <c r="M3" t="n">
-        <v>423.3667595428576</v>
+        <v>110.2358097604965</v>
       </c>
       <c r="N3" t="n">
-        <v>618.608711759224</v>
+        <v>110.2358097604965</v>
       </c>
       <c r="O3" t="n">
-        <v>822.0713777531216</v>
+        <v>110.2358097604965</v>
       </c>
       <c r="P3" t="n">
-        <v>822.0713777531216</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="Q3" t="n">
-        <v>822.0713777531216</v>
+        <v>214.050116039799</v>
       </c>
       <c r="R3" t="n">
-        <v>720.9018483060073</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="S3" t="n">
-        <v>547.4845037566762</v>
+        <v>113.1412541856014</v>
       </c>
       <c r="T3" t="n">
-        <v>547.4845037566762</v>
+        <v>113.1412541856014</v>
       </c>
       <c r="U3" t="n">
-        <v>547.4845037566762</v>
+        <v>113.1412541856014</v>
       </c>
       <c r="V3" t="n">
-        <v>547.4845037566762</v>
+        <v>59.08819457959154</v>
       </c>
       <c r="W3" t="n">
-        <v>547.4845037566762</v>
+        <v>59.08819457959154</v>
       </c>
       <c r="X3" t="n">
-        <v>547.4845037566762</v>
+        <v>59.08819457959154</v>
       </c>
       <c r="Y3" t="n">
-        <v>547.4845037566762</v>
+        <v>59.08819457959154</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>148.224788009872</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="C4" t="n">
-        <v>148.224788009872</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="D4" t="n">
-        <v>148.224788009872</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="E4" t="n">
-        <v>148.224788009872</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="F4" t="n">
-        <v>148.224788009872</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="G4" t="n">
-        <v>148.224788009872</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="H4" t="n">
-        <v>16.44142755506243</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="I4" t="n">
-        <v>16.44142755506243</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="J4" t="n">
-        <v>16.44142755506243</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="K4" t="n">
-        <v>16.44142755506243</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="L4" t="n">
-        <v>43.75555256277541</v>
+        <v>31.59512732850896</v>
       </c>
       <c r="M4" t="n">
-        <v>82.94359075499759</v>
+        <v>70.78316552073113</v>
       </c>
       <c r="N4" t="n">
-        <v>126.6344414104339</v>
+        <v>114.4740161761674</v>
       </c>
       <c r="O4" t="n">
-        <v>150.9737180453332</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="P4" t="n">
-        <v>148.224788009872</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="Q4" t="n">
-        <v>148.224788009872</v>
+        <v>112.3871215328157</v>
       </c>
       <c r="R4" t="n">
-        <v>148.224788009872</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="S4" t="n">
-        <v>148.224788009872</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="T4" t="n">
-        <v>148.224788009872</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="U4" t="n">
-        <v>148.224788009872</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="V4" t="n">
-        <v>148.224788009872</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="W4" t="n">
-        <v>148.224788009872</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="X4" t="n">
-        <v>148.224788009872</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="Y4" t="n">
-        <v>148.224788009872</v>
+        <v>4.28100232079598</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>463.0946480769296</v>
+        <v>255.9366034337592</v>
       </c>
       <c r="C5" t="n">
-        <v>463.0946480769296</v>
+        <v>255.9366034337592</v>
       </c>
       <c r="D5" t="n">
-        <v>463.0946480769296</v>
+        <v>255.9366034337592</v>
       </c>
       <c r="E5" t="n">
-        <v>255.5008658160403</v>
+        <v>255.9366034337592</v>
       </c>
       <c r="F5" t="n">
-        <v>47.90708355515102</v>
+        <v>248.9911026845557</v>
       </c>
       <c r="G5" t="n">
-        <v>28.51141680214578</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
-        <v>28.51141680214578</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
-        <v>28.51141680214578</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K5" t="n">
-        <v>119.4564334659848</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L5" t="n">
-        <v>299.5322850506434</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M5" t="n">
-        <v>469.413761616576</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N5" t="n">
-        <v>672.8764276104736</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O5" t="n">
-        <v>822.0713777531216</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P5" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>822.0713777531216</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>670.6884303378189</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S5" t="n">
-        <v>463.0946480769296</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T5" t="n">
-        <v>463.0946480769296</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="U5" t="n">
-        <v>463.0946480769296</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="V5" t="n">
-        <v>463.0946480769296</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="W5" t="n">
-        <v>463.0946480769296</v>
+        <v>255.9366034337592</v>
       </c>
       <c r="X5" t="n">
-        <v>463.0946480769296</v>
+        <v>255.9366034337592</v>
       </c>
       <c r="Y5" t="n">
-        <v>463.0946480769296</v>
+        <v>255.9366034337592</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>720.9018483060073</v>
+        <v>382.9414955037181</v>
       </c>
       <c r="C6" t="n">
-        <v>720.9018483060073</v>
+        <v>382.9414955037181</v>
       </c>
       <c r="D6" t="n">
-        <v>571.967438644756</v>
+        <v>382.9414955037181</v>
       </c>
       <c r="E6" t="n">
-        <v>412.7299836393005</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="F6" t="n">
-        <v>266.1954256661855</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="G6" t="n">
-        <v>127.464600248801</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H6" t="n">
-        <v>107.4951893506917</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I6" t="n">
-        <v>17.19556020784815</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J6" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>141.7989876128999</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>345.2616536067974</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>345.2616536067974</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N6" t="n">
-        <v>435.9652341458732</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O6" t="n">
-        <v>639.4279001397708</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P6" t="n">
-        <v>822.0713777531216</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>720.9018483060073</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>720.9018483060073</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T6" t="n">
-        <v>720.9018483060073</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U6" t="n">
-        <v>720.9018483060073</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V6" t="n">
-        <v>720.9018483060073</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="W6" t="n">
-        <v>720.9018483060073</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="X6" t="n">
-        <v>720.9018483060073</v>
+        <v>382.9414955037181</v>
       </c>
       <c r="Y6" t="n">
-        <v>720.9018483060073</v>
+        <v>382.9414955037181</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L7" t="n">
-        <v>43.75555256277541</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M7" t="n">
-        <v>82.94359075499759</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N7" t="n">
-        <v>126.6344414104339</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O7" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S7" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T7" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U7" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V7" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W7" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X7" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y7" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>614.4775954922324</v>
+        <v>467.067986854209</v>
       </c>
       <c r="C8" t="n">
-        <v>406.8838132313431</v>
+        <v>467.067986854209</v>
       </c>
       <c r="D8" t="n">
-        <v>406.8838132313431</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="E8" t="n">
-        <v>199.2900309704538</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="F8" t="n">
-        <v>192.3445302212503</v>
+        <v>216.6737094609055</v>
       </c>
       <c r="G8" t="n">
-        <v>176.8872195999018</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H8" t="n">
-        <v>16.44142755506243</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I8" t="n">
-        <v>16.44142755506243</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J8" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K8" t="n">
-        <v>16.44142755506243</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L8" t="n">
-        <v>196.517279139721</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M8" t="n">
-        <v>399.9799451336186</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N8" t="n">
-        <v>583.2163723184226</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O8" t="n">
-        <v>732.4113224610707</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P8" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>822.0713777531216</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>822.0713777531216</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>822.0713777531216</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T8" t="n">
-        <v>822.0713777531216</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U8" t="n">
-        <v>822.0713777531216</v>
+        <v>710.516763498309</v>
       </c>
       <c r="V8" t="n">
-        <v>822.0713777531216</v>
+        <v>467.067986854209</v>
       </c>
       <c r="W8" t="n">
-        <v>822.0713777531216</v>
+        <v>467.067986854209</v>
       </c>
       <c r="X8" t="n">
-        <v>822.0713777531216</v>
+        <v>467.067986854209</v>
       </c>
       <c r="Y8" t="n">
-        <v>822.0713777531216</v>
+        <v>467.067986854209</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>165.3758372163137</v>
+        <v>168.9696854242497</v>
       </c>
       <c r="C9" t="n">
-        <v>165.3758372163137</v>
+        <v>168.9696854242497</v>
       </c>
       <c r="D9" t="n">
-        <v>16.44142755506243</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E9" t="n">
-        <v>16.44142755506243</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F9" t="n">
-        <v>16.44142755506243</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G9" t="n">
-        <v>16.44142755506243</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H9" t="n">
-        <v>16.44142755506243</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I9" t="n">
-        <v>16.44142755506243</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>16.44142755506243</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>219.90409354896</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M9" t="n">
-        <v>423.3667595428576</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N9" t="n">
-        <v>626.8294255367553</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O9" t="n">
-        <v>626.8294255367553</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P9" t="n">
-        <v>752.6768192397923</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>648.6540332037905</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T9" t="n">
-        <v>446.4674385625565</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U9" t="n">
-        <v>446.4674385625565</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V9" t="n">
-        <v>446.4674385625565</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="W9" t="n">
-        <v>446.4674385625565</v>
+        <v>318.9674160535941</v>
       </c>
       <c r="X9" t="n">
-        <v>238.8736563016672</v>
+        <v>168.9696854242497</v>
       </c>
       <c r="Y9" t="n">
-        <v>238.8736563016672</v>
+        <v>168.9696854242497</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L10" t="n">
-        <v>43.75555256277541</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M10" t="n">
-        <v>82.94359075499759</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N10" t="n">
-        <v>126.6344414104339</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O10" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S10" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T10" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U10" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V10" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W10" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>16.44142755506243</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="C11" t="n">
-        <v>16.44142755506243</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="D11" t="n">
-        <v>16.44142755506243</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="E11" t="n">
-        <v>16.44142755506243</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F11" t="n">
-        <v>16.44142755506243</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G11" t="n">
-        <v>16.44142755506243</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H11" t="n">
-        <v>16.44142755506243</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I11" t="n">
-        <v>16.44142755506243</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J11" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K11" t="n">
-        <v>85.87524403801982</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L11" t="n">
-        <v>265.9510956226784</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M11" t="n">
-        <v>469.413761616576</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N11" t="n">
-        <v>672.8764276104736</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O11" t="n">
-        <v>822.0713777531216</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P11" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>811.9797623848946</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R11" t="n">
-        <v>811.9797623848946</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S11" t="n">
-        <v>811.9797623848946</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T11" t="n">
-        <v>811.9797623848946</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U11" t="n">
-        <v>811.9797623848946</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V11" t="n">
-        <v>604.3859801240053</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="W11" t="n">
-        <v>396.792197863116</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="X11" t="n">
-        <v>224.0352098159517</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="Y11" t="n">
-        <v>224.0352098159517</v>
+        <v>591.4512093066566</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>16.44142755506243</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="C12" t="n">
-        <v>16.44142755506243</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="D12" t="n">
-        <v>16.44142755506243</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="E12" t="n">
-        <v>16.44142755506243</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="F12" t="n">
-        <v>16.44142755506243</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G12" t="n">
-        <v>16.44142755506243</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H12" t="n">
-        <v>16.44142755506243</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I12" t="n">
-        <v>16.44142755506243</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J12" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>16.44142755506243</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L12" t="n">
-        <v>219.90409354896</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M12" t="n">
-        <v>366.5706756325438</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N12" t="n">
-        <v>366.5706756325438</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O12" t="n">
-        <v>570.0333416264414</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P12" t="n">
-        <v>752.6768192397923</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q12" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>720.9018483060073</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S12" t="n">
-        <v>547.4845037566762</v>
+        <v>798.4187829442119</v>
       </c>
       <c r="T12" t="n">
-        <v>345.2979091154422</v>
+        <v>798.4187829442119</v>
       </c>
       <c r="U12" t="n">
-        <v>137.7041268545529</v>
+        <v>570.195164680601</v>
       </c>
       <c r="V12" t="n">
-        <v>16.44142755506243</v>
+        <v>570.195164680601</v>
       </c>
       <c r="W12" t="n">
-        <v>16.44142755506243</v>
+        <v>570.195164680601</v>
       </c>
       <c r="X12" t="n">
-        <v>16.44142755506243</v>
+        <v>570.195164680601</v>
       </c>
       <c r="Y12" t="n">
-        <v>16.44142755506243</v>
+        <v>362.4348659156472</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C13" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D13" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E13" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F13" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G13" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H13" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I13" t="n">
-        <v>133.2380658808762</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J13" t="n">
-        <v>38.93586374282289</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K13" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L13" t="n">
-        <v>43.75555256277541</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M13" t="n">
-        <v>82.94359075499759</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N13" t="n">
-        <v>126.6344414104339</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O13" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P13" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q13" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R13" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S13" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T13" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U13" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V13" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W13" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X13" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y13" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>16.44142755506243</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C14" t="n">
-        <v>16.44142755506243</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D14" t="n">
-        <v>16.44142755506243</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E14" t="n">
-        <v>16.44142755506243</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="F14" t="n">
-        <v>16.44142755506243</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="G14" t="n">
-        <v>16.44142755506243</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="H14" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I14" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J14" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K14" t="n">
-        <v>16.44142755506243</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L14" t="n">
-        <v>176.2910403306274</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M14" t="n">
-        <v>379.753706324525</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N14" t="n">
-        <v>583.2163723184226</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O14" t="n">
-        <v>732.4113224610707</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P14" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q14" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R14" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S14" t="n">
-        <v>614.4775954922324</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T14" t="n">
-        <v>431.628992076841</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U14" t="n">
-        <v>224.0352098159517</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V14" t="n">
-        <v>16.44142755506243</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W14" t="n">
-        <v>16.44142755506243</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X14" t="n">
-        <v>16.44142755506243</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y14" t="n">
-        <v>16.44142755506243</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>784.3317048933958</v>
+        <v>182.1001465464452</v>
       </c>
       <c r="C15" t="n">
-        <v>609.8786756122688</v>
+        <v>182.1001465464452</v>
       </c>
       <c r="D15" t="n">
-        <v>460.9442659510175</v>
+        <v>182.1001465464452</v>
       </c>
       <c r="E15" t="n">
-        <v>301.706810945562</v>
+        <v>182.1001465464452</v>
       </c>
       <c r="F15" t="n">
-        <v>155.1722529724469</v>
+        <v>182.1001465464452</v>
       </c>
       <c r="G15" t="n">
-        <v>16.44142755506243</v>
+        <v>182.1001465464452</v>
       </c>
       <c r="H15" t="n">
-        <v>16.44142755506243</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I15" t="n">
-        <v>16.44142755506243</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J15" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>141.7989876128999</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L15" t="n">
-        <v>232.5025681519757</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M15" t="n">
-        <v>435.9652341458732</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N15" t="n">
-        <v>435.9652341458732</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O15" t="n">
-        <v>639.4279001397708</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P15" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q15" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>822.0713777531216</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S15" t="n">
-        <v>822.0713777531216</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T15" t="n">
-        <v>822.0713777531216</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U15" t="n">
-        <v>822.0713777531216</v>
+        <v>660.701031422288</v>
       </c>
       <c r="V15" t="n">
-        <v>822.0713777531216</v>
+        <v>425.5489231905453</v>
       </c>
       <c r="W15" t="n">
-        <v>784.3317048933958</v>
+        <v>182.1001465464452</v>
       </c>
       <c r="X15" t="n">
-        <v>784.3317048933958</v>
+        <v>182.1001465464452</v>
       </c>
       <c r="Y15" t="n">
-        <v>784.3317048933958</v>
+        <v>182.1001465464452</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C16" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D16" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E16" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F16" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G16" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H16" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I16" t="n">
-        <v>133.2380658808762</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J16" t="n">
-        <v>38.93586374282289</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K16" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L16" t="n">
-        <v>43.75555256277541</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M16" t="n">
-        <v>82.94359075499759</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N16" t="n">
-        <v>126.6344414104339</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O16" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P16" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q16" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R16" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S16" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T16" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U16" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V16" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W16" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X16" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y16" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="17">
@@ -5534,19 +5536,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S17" t="n">
-        <v>591.4512093066566</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T17" t="n">
-        <v>366.1018663125844</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U17" t="n">
-        <v>122.6530896684844</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="V17" t="n">
         <v>19.28114311021272</v>
@@ -5568,22 +5570,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>432.9682111954345</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C18" t="n">
-        <v>258.5151819143075</v>
+        <v>789.6041262295092</v>
       </c>
       <c r="D18" t="n">
-        <v>109.5807722530562</v>
+        <v>640.669716568258</v>
       </c>
       <c r="E18" t="n">
-        <v>109.5807722530562</v>
+        <v>481.4322615628025</v>
       </c>
       <c r="F18" t="n">
-        <v>109.5807722530562</v>
+        <v>334.8977035896875</v>
       </c>
       <c r="G18" t="n">
-        <v>109.5807722530562</v>
+        <v>196.166878172303</v>
       </c>
       <c r="H18" t="n">
         <v>109.5807722530562</v>
@@ -5595,49 +5597,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2442489785619</v>
+        <v>178.8501590306595</v>
       </c>
       <c r="M18" t="n">
-        <v>249.2442489785619</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N18" t="n">
-        <v>487.8483949674443</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O18" t="n">
-        <v>726.4525409563269</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P18" t="n">
-        <v>909.0960185696777</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T18" t="n">
-        <v>601.1835482155025</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U18" t="n">
-        <v>601.1835482155025</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V18" t="n">
-        <v>601.1835482155025</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W18" t="n">
-        <v>601.1835482155025</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X18" t="n">
-        <v>601.1835482155025</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y18" t="n">
-        <v>601.1835482155025</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="19">
@@ -5692,16 +5694,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q19" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
         <v>19.28114311021272</v>
@@ -5726,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>475.3318284112885</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C20" t="n">
-        <v>231.8830517671884</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D20" t="n">
-        <v>231.8830517671884</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E20" t="n">
-        <v>231.8830517671884</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F20" t="n">
-        <v>231.8830517671884</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="G20" t="n">
-        <v>231.8830517671884</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H20" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I20" t="n">
         <v>19.28114311021272</v>
@@ -5777,25 +5779,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S20" t="n">
-        <v>700.6811714053606</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T20" t="n">
-        <v>475.3318284112885</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U20" t="n">
-        <v>475.3318284112885</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V20" t="n">
-        <v>475.3318284112885</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W20" t="n">
-        <v>475.3318284112885</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X20" t="n">
-        <v>475.3318284112885</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y20" t="n">
-        <v>475.3318284112885</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="21">
@@ -5805,19 +5807,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>588.4532163200711</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C21" t="n">
-        <v>588.4532163200711</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D21" t="n">
-        <v>463.7839815061678</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E21" t="n">
-        <v>304.5465265007123</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F21" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G21" t="n">
         <v>19.28114311021272</v>
@@ -5841,10 +5843,10 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N21" t="n">
-        <v>781.4136778972854</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O21" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P21" t="n">
         <v>964.0571555106362</v>
@@ -5859,22 +5861,22 @@
         <v>790.6398109613051</v>
       </c>
       <c r="T21" t="n">
-        <v>588.4532163200711</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U21" t="n">
-        <v>588.4532163200711</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V21" t="n">
-        <v>588.4532163200711</v>
+        <v>401.5856725968725</v>
       </c>
       <c r="W21" t="n">
-        <v>588.4532163200711</v>
+        <v>401.5856725968725</v>
       </c>
       <c r="X21" t="n">
-        <v>588.4532163200711</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="Y21" t="n">
-        <v>588.4532163200711</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="22">
@@ -5884,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G22" t="n">
         <v>19.28114311021272</v>
@@ -5944,16 +5946,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="23">
@@ -5963,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C23" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D23" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E23" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="F23" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="G23" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="H23" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="I23" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J23" t="n">
         <v>19.28114311021272</v>
@@ -6011,28 +6013,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>942.6594228129348</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>731.528039392485</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U23" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V23" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W23" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X23" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y23" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="24">
@@ -6042,22 +6044,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>168.215552771464</v>
+        <v>900.5405560409666</v>
       </c>
       <c r="C24" t="n">
-        <v>168.215552771464</v>
+        <v>726.0875267598396</v>
       </c>
       <c r="D24" t="n">
-        <v>19.28114311021272</v>
+        <v>577.1531170985884</v>
       </c>
       <c r="E24" t="n">
-        <v>19.28114311021272</v>
+        <v>417.9156620931329</v>
       </c>
       <c r="F24" t="n">
-        <v>19.28114311021272</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G24" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H24" t="n">
         <v>19.28114311021272</v>
@@ -6069,49 +6071,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M24" t="n">
-        <v>383.2428491569326</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N24" t="n">
-        <v>621.8469951458151</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O24" t="n">
-        <v>781.4136778972854</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P24" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>259.0600686093459</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V24" t="n">
-        <v>168.215552771464</v>
+        <v>900.5405560409666</v>
       </c>
       <c r="W24" t="n">
-        <v>168.215552771464</v>
+        <v>900.5405560409666</v>
       </c>
       <c r="X24" t="n">
-        <v>168.215552771464</v>
+        <v>900.5405560409666</v>
       </c>
       <c r="Y24" t="n">
-        <v>168.215552771464</v>
+        <v>900.5405560409666</v>
       </c>
     </row>
     <row r="25">
@@ -6166,28 +6168,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y25" t="n">
         <v>19.28114311021272</v>
@@ -6200,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="C26" t="n">
         <v>19.28114311021272</v>
@@ -6245,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S26" t="n">
-        <v>601.5428246748836</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T26" t="n">
-        <v>376.1934816808115</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U26" t="n">
-        <v>132.7447050367114</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V26" t="n">
-        <v>19.28114311021272</v>
+        <v>710.516763498309</v>
       </c>
       <c r="W26" t="n">
-        <v>19.28114311021272</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X26" t="n">
-        <v>19.28114311021272</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y26" t="n">
-        <v>19.28114311021272</v>
+        <v>467.067986854209</v>
       </c>
     </row>
     <row r="27">
@@ -6279,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>19.28114311021272</v>
+        <v>344.6327430815143</v>
       </c>
       <c r="C27" t="n">
-        <v>19.28114311021272</v>
+        <v>170.1797138003873</v>
       </c>
       <c r="D27" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="E27" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="F27" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="G27" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
@@ -6327,28 +6329,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U27" t="n">
-        <v>259.0600686093459</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V27" t="n">
-        <v>23.90796037760316</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W27" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X27" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y27" t="n">
-        <v>19.28114311021272</v>
+        <v>512.8480801015824</v>
       </c>
     </row>
     <row r="28">
@@ -6403,19 +6405,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
         <v>19.28114311021272</v>
@@ -6437,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>718.7806050553886</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C29" t="n">
-        <v>718.7806050553886</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D29" t="n">
-        <v>718.7806050553886</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E29" t="n">
-        <v>718.7806050553886</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F29" t="n">
-        <v>718.7806050553886</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G29" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H29" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I29" t="n">
         <v>19.28114311021272</v>
@@ -6485,28 +6487,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>962.2293816994886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>962.2293816994886</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T29" t="n">
-        <v>962.2293816994886</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U29" t="n">
-        <v>962.2293816994886</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="V29" t="n">
-        <v>962.2293816994886</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="W29" t="n">
-        <v>962.2293816994886</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X29" t="n">
-        <v>962.2293816994886</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y29" t="n">
-        <v>718.7806050553886</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="30">
@@ -6516,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>109.5807722530562</v>
+        <v>306.9463781888485</v>
       </c>
       <c r="C30" t="n">
-        <v>109.5807722530562</v>
+        <v>306.9463781888485</v>
       </c>
       <c r="D30" t="n">
-        <v>109.5807722530562</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="E30" t="n">
-        <v>109.5807722530562</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="F30" t="n">
-        <v>109.5807722530562</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G30" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H30" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I30" t="n">
         <v>19.28114311021272</v>
@@ -6546,19 +6548,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>374.6018090363993</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M30" t="n">
-        <v>473.4149733950735</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N30" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O30" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P30" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
@@ -6567,25 +6569,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>693.407908243611</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U30" t="n">
-        <v>693.407908243611</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V30" t="n">
-        <v>693.407908243611</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W30" t="n">
-        <v>693.407908243611</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X30" t="n">
-        <v>485.5564080380782</v>
+        <v>512.7568786610034</v>
       </c>
       <c r="Y30" t="n">
-        <v>277.7961092731243</v>
+        <v>306.9463781888485</v>
       </c>
     </row>
     <row r="31">
@@ -6595,13 +6597,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C31" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D31" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E31" t="n">
         <v>19.28114311021272</v>
@@ -6637,34 +6639,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q31" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R31" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S31" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T31" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U31" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V31" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W31" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X31" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y31" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C32" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D32" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E32" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F32" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G32" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H32" t="n">
         <v>19.28114311021272</v>
@@ -6731,19 +6733,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U32" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V32" t="n">
-        <v>720.6083788665362</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="W32" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X32" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y32" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="33">
@@ -6753,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>655.0361258579891</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C33" t="n">
-        <v>480.5830965768621</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D33" t="n">
-        <v>331.6486869156108</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E33" t="n">
-        <v>172.4112319101553</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F33" t="n">
-        <v>25.87667393704029</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G33" t="n">
-        <v>25.87667393704029</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H33" t="n">
-        <v>25.87667393704029</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I33" t="n">
         <v>19.28114311021272</v>
@@ -6789,10 +6791,10 @@
         <v>487.8483949674443</v>
       </c>
       <c r="N33" t="n">
-        <v>726.4525409563269</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O33" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P33" t="n">
         <v>964.0571555106362</v>
@@ -6801,28 +6803,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>862.8876260635219</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="S33" t="n">
-        <v>862.8876260635219</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="T33" t="n">
-        <v>862.8876260635219</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="U33" t="n">
-        <v>862.8876260635219</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="V33" t="n">
-        <v>862.8876260635219</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W33" t="n">
-        <v>862.8876260635219</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X33" t="n">
-        <v>655.0361258579891</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y33" t="n">
-        <v>655.0361258579891</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L34" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M34" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N34" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S34" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="T34" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="35">
@@ -6911,16 +6913,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>122.6530896684844</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C35" t="n">
-        <v>122.6530896684844</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D35" t="n">
-        <v>122.6530896684844</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E35" t="n">
-        <v>122.6530896684844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F35" t="n">
         <v>19.28114311021272</v>
@@ -6956,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S35" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T35" t="n">
-        <v>366.1018663125844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U35" t="n">
-        <v>366.1018663125844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V35" t="n">
-        <v>366.1018663125844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W35" t="n">
-        <v>122.6530896684844</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X35" t="n">
-        <v>122.6530896684844</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y35" t="n">
-        <v>122.6530896684844</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="36">
@@ -6990,46 +6992,46 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>605.0715884066004</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C36" t="n">
-        <v>430.6185591254734</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D36" t="n">
-        <v>430.6185591254734</v>
+        <v>571.6739692052849</v>
       </c>
       <c r="E36" t="n">
-        <v>271.3811041200179</v>
+        <v>412.4365141998294</v>
       </c>
       <c r="F36" t="n">
-        <v>271.3811041200179</v>
+        <v>265.9019562267144</v>
       </c>
       <c r="G36" t="n">
-        <v>132.6502787026334</v>
+        <v>127.17113080933</v>
       </c>
       <c r="H36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M36" t="n">
-        <v>613.2059550252818</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N36" t="n">
-        <v>851.8101010141643</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O36" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P36" t="n">
         <v>894.6625969973069</v>
@@ -7041,25 +7043,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>833.2952066702114</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>833.2952066702114</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U36" t="n">
-        <v>605.0715884066004</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V36" t="n">
-        <v>605.0715884066004</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W36" t="n">
-        <v>605.0715884066004</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X36" t="n">
-        <v>605.0715884066004</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y36" t="n">
-        <v>605.0715884066004</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="37">
@@ -7069,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H37" t="n">
         <v>829.5248650203655</v>
@@ -7129,16 +7131,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C38" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D38" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E38" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F38" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G38" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H38" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I38" t="n">
-        <v>21.10891692136039</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7214,10 +7216,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="X38" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y38" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="39">
@@ -7227,22 +7229,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>50.83687180935613</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C39" t="n">
-        <v>19.28114311021272</v>
+        <v>546.1553495854092</v>
       </c>
       <c r="D39" t="n">
-        <v>19.28114311021272</v>
+        <v>397.220939924158</v>
       </c>
       <c r="E39" t="n">
-        <v>19.28114311021272</v>
+        <v>397.220939924158</v>
       </c>
       <c r="F39" t="n">
-        <v>19.28114311021272</v>
+        <v>250.6863819510429</v>
       </c>
       <c r="G39" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H39" t="n">
         <v>19.28114311021272</v>
@@ -7254,19 +7256,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M39" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N39" t="n">
-        <v>851.8101010141643</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O39" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P39" t="n">
         <v>894.6625969973069</v>
@@ -7275,28 +7277,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U39" t="n">
-        <v>634.6640077999109</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V39" t="n">
-        <v>634.6640077999109</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W39" t="n">
-        <v>634.6640077999109</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X39" t="n">
-        <v>426.8125075943781</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y39" t="n">
-        <v>219.0522088294242</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="40">
@@ -7306,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H40" t="n">
         <v>829.5248650203655</v>
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C41" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D41" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E41" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F41" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G41" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H41" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I41" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J41" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K41" t="n">
-        <v>119.4564334659848</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L41" t="n">
-        <v>299.5322850506434</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M41" t="n">
-        <v>379.753706324525</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N41" t="n">
-        <v>583.2163723184226</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O41" t="n">
-        <v>732.4113224610707</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P41" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>811.9797623848946</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R41" t="n">
-        <v>811.9797623848946</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S41" t="n">
-        <v>811.9797623848946</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T41" t="n">
-        <v>811.9797623848946</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U41" t="n">
-        <v>604.3859801240053</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="V41" t="n">
-        <v>604.3859801240053</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W41" t="n">
-        <v>604.3859801240053</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X41" t="n">
-        <v>396.792197863116</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y41" t="n">
-        <v>224.0352098159517</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>175.6788825605179</v>
+        <v>501.9060370580465</v>
       </c>
       <c r="C42" t="n">
-        <v>175.6788825605179</v>
+        <v>327.4530077769195</v>
       </c>
       <c r="D42" t="n">
-        <v>175.6788825605179</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E42" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F42" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G42" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H42" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I42" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J42" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L42" t="n">
-        <v>219.90409354896</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M42" t="n">
-        <v>423.3667595428576</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N42" t="n">
-        <v>570.0333416264414</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O42" t="n">
-        <v>570.0333416264414</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P42" t="n">
-        <v>752.6768192397923</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q42" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R42" t="n">
-        <v>793.0530417235304</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>793.0530417235304</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T42" t="n">
-        <v>590.8664470822965</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U42" t="n">
-        <v>590.8664470822965</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V42" t="n">
-        <v>383.2726648214073</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W42" t="n">
-        <v>383.2726648214073</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X42" t="n">
-        <v>175.6788825605179</v>
+        <v>756.2056553051034</v>
       </c>
       <c r="Y42" t="n">
-        <v>175.6788825605179</v>
+        <v>670.1213740781145</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>16.44142755506243</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C43" t="n">
-        <v>16.44142755506243</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D43" t="n">
-        <v>16.44142755506243</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E43" t="n">
-        <v>16.44142755506243</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F43" t="n">
-        <v>16.44142755506243</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G43" t="n">
-        <v>16.44142755506243</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H43" t="n">
-        <v>16.44142755506243</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I43" t="n">
-        <v>16.44142755506243</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J43" t="n">
-        <v>16.44142755506243</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K43" t="n">
-        <v>16.44142755506243</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L43" t="n">
-        <v>43.75555256277541</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M43" t="n">
-        <v>82.94359075499759</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N43" t="n">
-        <v>126.6344414104339</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O43" t="n">
-        <v>150.9737180453332</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P43" t="n">
-        <v>150.9737180453332</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q43" t="n">
-        <v>63.94135112442973</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R43" t="n">
-        <v>63.94135112442973</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S43" t="n">
-        <v>16.44142755506243</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T43" t="n">
-        <v>16.44142755506243</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U43" t="n">
-        <v>16.44142755506243</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V43" t="n">
-        <v>16.44142755506243</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W43" t="n">
-        <v>16.44142755506243</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X43" t="n">
-        <v>16.44142755506243</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y43" t="n">
-        <v>16.44142755506243</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>431.628992076841</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="C44" t="n">
-        <v>431.628992076841</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="D44" t="n">
-        <v>431.628992076841</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="E44" t="n">
-        <v>224.0352098159517</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="F44" t="n">
-        <v>16.44142755506243</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="G44" t="n">
-        <v>16.44142755506243</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="H44" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I44" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J44" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K44" t="n">
-        <v>119.4564334659848</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L44" t="n">
-        <v>299.5322850506434</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M44" t="n">
-        <v>379.753706324525</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N44" t="n">
-        <v>583.2163723184226</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O44" t="n">
-        <v>732.4113224610707</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P44" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R44" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S44" t="n">
-        <v>822.0713777531216</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T44" t="n">
-        <v>822.0713777531216</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U44" t="n">
-        <v>639.2227743377304</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="V44" t="n">
-        <v>639.2227743377304</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="W44" t="n">
-        <v>639.2227743377304</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="X44" t="n">
-        <v>639.2227743377304</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="Y44" t="n">
-        <v>431.628992076841</v>
+        <v>284.1276524520142</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>16.44142755506243</v>
+        <v>284.787934186969</v>
       </c>
       <c r="C45" t="n">
-        <v>16.44142755506243</v>
+        <v>110.334904905842</v>
       </c>
       <c r="D45" t="n">
-        <v>16.44142755506243</v>
+        <v>110.334904905842</v>
       </c>
       <c r="E45" t="n">
-        <v>16.44142755506243</v>
+        <v>110.334904905842</v>
       </c>
       <c r="F45" t="n">
-        <v>16.44142755506243</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G45" t="n">
-        <v>16.44142755506243</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H45" t="n">
-        <v>16.44142755506243</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I45" t="n">
-        <v>16.44142755506243</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J45" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>16.44142755506243</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L45" t="n">
-        <v>16.44142755506243</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M45" t="n">
-        <v>219.90409354896</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N45" t="n">
-        <v>423.3667595428576</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O45" t="n">
-        <v>570.0333416264414</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P45" t="n">
-        <v>752.6768192397923</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q45" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>822.0713777531216</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S45" t="n">
-        <v>822.0713777531216</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T45" t="n">
-        <v>822.0713777531216</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U45" t="n">
-        <v>822.0713777531216</v>
+        <v>727.7003411836656</v>
       </c>
       <c r="V45" t="n">
-        <v>614.4775954922324</v>
+        <v>492.5482329519229</v>
       </c>
       <c r="W45" t="n">
-        <v>406.8838132313431</v>
+        <v>492.5482329519229</v>
       </c>
       <c r="X45" t="n">
-        <v>224.0352098159517</v>
+        <v>492.5482329519229</v>
       </c>
       <c r="Y45" t="n">
-        <v>16.44142755506243</v>
+        <v>284.787934186969</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>687.5390872628509</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C46" t="n">
-        <v>687.5390872628509</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D46" t="n">
-        <v>687.5390872628509</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E46" t="n">
-        <v>687.5390872628509</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F46" t="n">
-        <v>687.5390872628509</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G46" t="n">
-        <v>687.5390872628509</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H46" t="n">
-        <v>687.5390872628509</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I46" t="n">
-        <v>687.5390872628509</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J46" t="n">
-        <v>687.5390872628509</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K46" t="n">
-        <v>687.5390872628509</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L46" t="n">
-        <v>714.8532122705639</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M46" t="n">
-        <v>754.041250462786</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N46" t="n">
-        <v>797.7321011182223</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O46" t="n">
-        <v>822.0713777531216</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P46" t="n">
-        <v>822.0713777531216</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q46" t="n">
-        <v>822.0713777531216</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R46" t="n">
-        <v>822.0713777531216</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S46" t="n">
-        <v>822.0713777531216</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T46" t="n">
-        <v>822.0713777531216</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U46" t="n">
-        <v>822.0713777531216</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V46" t="n">
-        <v>822.0713777531216</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W46" t="n">
-        <v>687.5390872628509</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X46" t="n">
-        <v>687.5390872628509</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y46" t="n">
-        <v>687.5390872628509</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
   </sheetData>
@@ -7979,22 +7981,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>273.6023800549303</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504504</v>
+        <v>289.278943979937</v>
       </c>
       <c r="M2" t="n">
-        <v>435.8640776655532</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N2" t="n">
-        <v>434.9309080348713</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O2" t="n">
-        <v>346.8797879011645</v>
+        <v>281.4486180473961</v>
       </c>
       <c r="P2" t="n">
-        <v>231.2329957552695</v>
+        <v>284.7455247652193</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8058,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>191.3539679843088</v>
       </c>
       <c r="L3" t="n">
-        <v>344.0722242181546</v>
+        <v>192.0669087898239</v>
       </c>
       <c r="M3" t="n">
-        <v>347.6518783602987</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>328.5558052311782</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>348.1140888827248</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>185.3248140400396</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>193.4943030959713</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8222,16 +8224,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>401.9436843039723</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N5" t="n">
-        <v>434.9309080348713</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8295,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>344.0722242181546</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>222.9614904056321</v>
+        <v>301.2508595994748</v>
       </c>
       <c r="O6" t="n">
-        <v>348.1140888827248</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8453,16 +8455,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>435.8640776655532</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
-        <v>414.5003637832617</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
         <v>380.8001812627454</v>
@@ -8532,25 +8534,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>347.6518783602987</v>
+        <v>303.312501347746</v>
       </c>
       <c r="N9" t="n">
-        <v>336.8595565216137</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>261.0929869123474</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8690,22 +8692,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>290.2250192095839</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>435.8640776655532</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>434.9309080348713</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8769,22 +8771,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>344.0722242181546</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>290.282096632709</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O12" t="n">
-        <v>348.1140888827248</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -8927,16 +8929,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>397.2306702988408</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>435.8640776655532</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>434.9309080348713</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
@@ -9006,22 +9008,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>230.174158102173</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>347.6518783602987</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O15" t="n">
-        <v>348.1140888827248</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -9243,13 +9245,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>173.111405903722</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
         <v>372.3560009609923</v>
@@ -9258,10 +9260,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>195.4980740263837</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9489,13 +9491,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>301.2485028631349</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -9717,7 +9719,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>138.5543797798742</v>
@@ -9729,13 +9731,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
-        <v>303.774711870172</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>295.1552315763977</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -10194,13 +10196,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M30" t="n">
-        <v>241.9453110519923</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
@@ -10209,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10437,13 +10439,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>372.3560009609923</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O33" t="n">
-        <v>198.1125443848066</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -10665,10 +10667,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
         <v>383.1483227996774</v>
@@ -10677,10 +10679,10 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>185.8815939223662</v>
+        <v>360.302996258564</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10823,7 +10825,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10902,22 +10904,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>383.1483227996774</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N39" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>185.8815939223662</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11066,10 +11068,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>311.3779718877592</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>434.9309080348713</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
@@ -11142,16 +11144,16 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>347.6518783602987</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N42" t="n">
-        <v>279.489774794024</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
@@ -11303,10 +11305,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>311.3779718877592</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>434.9309080348713</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
@@ -11376,25 +11378,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>347.6518783602987</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>336.8595565216137</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O45" t="n">
-        <v>290.7443071551351</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23255,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>177.2159972252002</v>
+        <v>310.2633432389318</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -23264,13 +23266,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H11" t="n">
         <v>339.4748021157671</v>
@@ -23279,7 +23281,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23303,10 +23305,10 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>223.0958495641314</v>
@@ -23315,13 +23317,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>198.7016825117764</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23349,16 +23351,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23385,16 +23387,16 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>107.8590164157209</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>20.42353764269441</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>112.7505148429297</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
         <v>251.6949831609196</v>
@@ -23403,7 +23405,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -23501,16 +23503,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G14" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H14" t="n">
-        <v>339.4748021157671</v>
+        <v>127.189416472325</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
@@ -23543,16 +23545,16 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>3.502225147964936</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>42.07573218289394</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23574,28 +23576,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>41.18785501229924</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23619,22 +23621,22 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>214.332707029791</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -23774,7 +23776,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -23789,7 +23791,7 @@
         <v>10.33136403017744</v>
       </c>
       <c r="V17" t="n">
-        <v>225.414031377446</v>
+        <v>215.4233321629012</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23808,7 +23810,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -23817,16 +23819,16 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>26.5151993764422</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -23856,13 +23858,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>112.7608627291202</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
         <v>225.9413820809748</v>
@@ -23932,10 +23934,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>130.2684670434958</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
@@ -23944,7 +23946,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23966,10 +23968,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C20" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -23981,13 +23983,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H20" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
         <v>11.94928935461252</v>
@@ -24017,10 +24019,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>108.137662477717</v>
+        <v>156.5945010984978</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
         <v>251.3456529078365</v>
@@ -24048,19 +24050,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>24.02252309887449</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
         <v>112.2354442364965</v>
@@ -24099,19 +24101,19 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>73.57837224961182</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24139,7 +24141,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H22" t="n">
         <v>162.2271725074396</v>
@@ -24184,7 +24186,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V22" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24203,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24212,22 +24214,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G23" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I23" t="n">
-        <v>210.4758895704059</v>
+        <v>10.13979328157632</v>
       </c>
       <c r="J23" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24251,16 +24253,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>128.6853625704253</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -24285,22 +24287,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>89.39663285141508</v>
@@ -24330,19 +24332,19 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>142.8645164699222</v>
+        <v>169.9191536744524</v>
       </c>
       <c r="W24" t="n">
         <v>251.6949831609196</v>
@@ -24406,7 +24408,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
         <v>177.2933913771695</v>
@@ -24421,7 +24423,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V25" t="n">
-        <v>205.1127189901543</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -24430,7 +24432,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="26">
@@ -24440,10 +24442,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>162.9782053421103</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24485,22 +24487,22 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>215.4233321629012</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -24509,7 +24511,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="27">
@@ -24519,13 +24521,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>111.0375161441202</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
@@ -24537,13 +24539,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24567,28 +24569,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>247.1144340662031</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24643,10 +24645,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
-        <v>130.2684670434958</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S28" t="n">
         <v>224.0165980369723</v>
@@ -24658,7 +24660,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24689,16 +24691,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G29" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
         <v>11.94928935461252</v>
@@ -24725,28 +24727,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>148.0596218681135</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>345.9756526602163</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24756,13 +24758,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>157.6450804554009</v>
@@ -24771,13 +24773,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
         <v>0.7465913262578567</v>
@@ -24807,10 +24809,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>103.9051450043045</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
         <v>225.9413820809748</v>
@@ -24819,13 +24821,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>1.930300309871029</v>
       </c>
     </row>
     <row r="31">
@@ -24844,7 +24846,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>15.96843579630763</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24877,7 +24879,7 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>86.16204325169439</v>
@@ -24889,7 +24891,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T31" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U31" t="n">
         <v>286.3190293564909</v>
@@ -24923,16 +24925,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>169.6449844288197</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
@@ -24971,19 +24973,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V32" t="n">
         <v>86.73796959247585</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>136.9555830739709</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="33">
@@ -24996,16 +24998,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
         <v>137.3435171632106</v>
@@ -25014,7 +25016,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>82.86705733285578</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
         <v>0.7465913262578567</v>
@@ -25041,7 +25043,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>50.10013888409016</v>
       </c>
       <c r="S33" t="n">
         <v>171.6831711038378</v>
@@ -25053,16 +25055,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25123,13 +25125,13 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S34" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160426</v>
       </c>
       <c r="T34" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U34" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25157,13 +25159,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>169.6449844288197</v>
       </c>
       <c r="F35" t="n">
-        <v>304.5378186490225</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>415.302737515135</v>
@@ -25196,16 +25198,16 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
         <v>251.3456529078365</v>
@@ -25220,7 +25222,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="36">
@@ -25233,28 +25235,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>6.170947740628264</v>
       </c>
       <c r="I36" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25281,19 +25283,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>42.22884175181727</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
@@ -25327,7 +25329,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H37" t="n">
-        <v>29.04020492207158</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I37" t="n">
         <v>155.4504749272583</v>
@@ -25369,7 +25371,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25391,10 +25393,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>152.9875061275654</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E38" t="n">
         <v>140.9160811946027</v>
@@ -25403,16 +25405,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H38" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>10.13979328157633</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25454,7 +25456,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -25467,25 +25469,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>141.4683275761638</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>20.48777494728519</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>89.39663285141508</v>
@@ -25515,7 +25517,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
         <v>171.6831711038378</v>
@@ -25524,19 +25526,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25546,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>46.6450125965693</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25564,7 +25566,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H40" t="n">
-        <v>29.04020492207158</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I40" t="n">
         <v>155.4504749272583</v>
@@ -25625,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>177.2159972252002</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -25670,19 +25672,19 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>45.82780846955609</v>
+        <v>139.0167266006028</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -25691,10 +25693,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>215.208520489361</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25704,13 +25706,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -25752,28 +25754,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>71.42968148334786</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>27.28274271114486</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>0.2551407651970692</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>120.4592573625854</v>
       </c>
     </row>
     <row r="43">
@@ -25783,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>46.6450125965693</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25828,13 +25830,13 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S43" t="n">
-        <v>176.9916737032986</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T43" t="n">
         <v>227.9455894282815</v>
@@ -25862,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25871,16 +25873,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>176.4125256339814</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>201.358201303431</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
-        <v>339.4748021157671</v>
+        <v>318.2910467450428</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
@@ -25913,16 +25915,16 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>70.32553552659914</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -25931,7 +25933,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25944,7 +25946,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
@@ -25962,10 +25964,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25989,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>171.6831711038378</v>
@@ -25998,19 +26000,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>92.10597004991709</v>
       </c>
       <c r="V45" t="n">
-        <v>27.28274271114486</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>24.75286782224003</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.1648513390239543</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26080,10 +26082,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W46" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>942840.4281446759</v>
+        <v>933661.7637443672</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>942840.4281446759</v>
+        <v>944983.8397089043</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>942840.4281446759</v>
+        <v>944983.8397089043</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>386761.2933308137</v>
+        <v>407391.3724271237</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>386761.2933308136</v>
+        <v>407391.3724271236</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>407391.3724271237</v>
+        <v>407391.3724271236</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>407391.3724271236</v>
+        <v>407391.3724271237</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>407391.3724271235</v>
+        <v>407391.3724271236</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>407391.3724271237</v>
+        <v>407391.3724271236</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>407391.3724271236</v>
+        <v>407391.3724271235</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>407391.3724271237</v>
+        <v>407391.3724271236</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>386761.2933308137</v>
+        <v>407391.3724271236</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>386761.2933308137</v>
+        <v>407391.3724271236</v>
       </c>
     </row>
   </sheetData>
@@ -26311,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117843</v>
+        <v>533677.1504117844</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.1504117841</v>
+        <v>533677.1504117842</v>
       </c>
       <c r="D2" t="n">
-        <v>533677.150411784</v>
+        <v>533677.1504117842</v>
       </c>
       <c r="E2" t="n">
-        <v>205084.9343854111</v>
+        <v>216008.8742907321</v>
       </c>
       <c r="F2" t="n">
-        <v>205084.9343854111</v>
+        <v>216008.874290732</v>
       </c>
       <c r="G2" t="n">
         <v>216008.8742907321</v>
@@ -26341,19 +26343,19 @@
         <v>216008.8742907321</v>
       </c>
       <c r="L2" t="n">
-        <v>216008.874290732</v>
+        <v>216008.8742907321</v>
       </c>
       <c r="M2" t="n">
         <v>216008.874290732</v>
       </c>
       <c r="N2" t="n">
-        <v>216008.874290732</v>
+        <v>216008.8742907321</v>
       </c>
       <c r="O2" t="n">
-        <v>205084.9343854111</v>
+        <v>216008.8742907321</v>
       </c>
       <c r="P2" t="n">
-        <v>205084.9343854111</v>
+        <v>216008.8742907321</v>
       </c>
     </row>
     <row r="3">
@@ -26363,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>68873.75658168984</v>
+        <v>17933.27925940139</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>60576.32218666811</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26378,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>9729.042974167098</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>53772.51089020943</v>
+        <v>14001.23214027929</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>48256.95293363261</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26415,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>328386.1670003451</v>
+        <v>360174.3645198887</v>
       </c>
       <c r="C4" t="n">
-        <v>328386.1670003452</v>
+        <v>320962.9529903556</v>
       </c>
       <c r="D4" t="n">
-        <v>328386.1670003451</v>
+        <v>320962.9529903556</v>
       </c>
       <c r="E4" t="n">
-        <v>39848.29285289707</v>
+        <v>42017.42535589615</v>
       </c>
       <c r="F4" t="n">
-        <v>39848.29285289707</v>
+        <v>42017.42535589615</v>
       </c>
       <c r="G4" t="n">
         <v>42017.42535589615</v>
@@ -26436,28 +26438,28 @@
         <v>42017.42535589615</v>
       </c>
       <c r="I4" t="n">
-        <v>42017.42535589614</v>
+        <v>42017.42535589615</v>
       </c>
       <c r="J4" t="n">
         <v>42017.42535589615</v>
       </c>
       <c r="K4" t="n">
-        <v>42017.42535589616</v>
+        <v>42017.42535589614</v>
       </c>
       <c r="L4" t="n">
         <v>42017.42535589615</v>
       </c>
       <c r="M4" t="n">
+        <v>42017.42535589615</v>
+      </c>
+      <c r="N4" t="n">
+        <v>42017.42535589615</v>
+      </c>
+      <c r="O4" t="n">
+        <v>42017.42535589615</v>
+      </c>
+      <c r="P4" t="n">
         <v>42017.42535589614</v>
-      </c>
-      <c r="N4" t="n">
-        <v>42017.42535589614</v>
-      </c>
-      <c r="O4" t="n">
-        <v>39848.29285289707</v>
-      </c>
-      <c r="P4" t="n">
-        <v>39848.29285289707</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>46123.08494184745</v>
+        <v>36881.16176380494</v>
       </c>
       <c r="C5" t="n">
-        <v>46123.08494184745</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="D5" t="n">
-        <v>46123.08494184745</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>12495.48494184745</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="F5" t="n">
-        <v>12495.48494184745</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="G5" t="n">
         <v>14653.66876376167</v>
@@ -26506,10 +26508,10 @@
         <v>14653.66876376167</v>
       </c>
       <c r="O5" t="n">
-        <v>12495.48494184745</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="P5" t="n">
-        <v>12495.48494184745</v>
+        <v>14653.66876376167</v>
       </c>
     </row>
     <row r="6">
@@ -26519,37 +26521,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>90294.14188790193</v>
+        <v>118688.3448686895</v>
       </c>
       <c r="C6" t="n">
-        <v>159167.8984695915</v>
+        <v>103856.6064709988</v>
       </c>
       <c r="D6" t="n">
-        <v>159167.8984695914</v>
+        <v>164432.928657667</v>
       </c>
       <c r="E6" t="n">
-        <v>152741.1565906665</v>
+        <v>159337.7801710743</v>
       </c>
       <c r="F6" t="n">
-        <v>152741.1565906665</v>
+        <v>159337.7801710742</v>
       </c>
       <c r="G6" t="n">
-        <v>149608.7371969071</v>
+        <v>159337.7801710743</v>
       </c>
       <c r="H6" t="n">
-        <v>159337.7801710743</v>
+        <v>159337.7801710742</v>
       </c>
       <c r="I6" t="n">
         <v>159337.7801710743</v>
       </c>
       <c r="J6" t="n">
-        <v>105565.2692808648</v>
+        <v>145336.548030795</v>
       </c>
       <c r="K6" t="n">
+        <v>111080.8272374417</v>
+      </c>
+      <c r="L6" t="n">
         <v>159337.7801710743</v>
-      </c>
-      <c r="L6" t="n">
-        <v>159337.7801710742</v>
       </c>
       <c r="M6" t="n">
         <v>159337.7801710742</v>
@@ -26558,10 +26560,10 @@
         <v>159337.7801710742</v>
       </c>
       <c r="O6" t="n">
-        <v>152741.1565906666</v>
+        <v>159337.7801710742</v>
       </c>
       <c r="P6" t="n">
-        <v>152741.1565906665</v>
+        <v>159337.7801710743</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>205.5178444382804</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="C4" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D4" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F4" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G4" t="n">
         <v>241.0142888776591</v>
@@ -26826,10 +26828,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O4" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P4" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
   </sheetData>
@@ -27009,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>205.5178444382804</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>187.5017598677093</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27024,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>35.49644443937865</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,10 +27035,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>205.5178444382804</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>187.5017598677093</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27255,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>205.5178444382804</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>187.5017598677093</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27270,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>35.49644443937865</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,22 +27378,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>329.2213126535308</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>311.7603627610578</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>301.1705126107332</v>
       </c>
       <c r="E2" t="n">
-        <v>176.4125256339814</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>201.358201303431</v>
+        <v>396.9849362740401</v>
       </c>
       <c r="G2" t="n">
-        <v>234.2826201338976</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
@@ -27400,7 +27402,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27421,13 +27423,13 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>3.502225147964936</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
@@ -27455,10 +27457,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -27473,10 +27475,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>15.88770561275489</v>
+        <v>35.88410384146533</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,10 +27505,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>46.64530514269338</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>125.2959268781319</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
@@ -27515,7 +27517,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>179.2880581394755</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -27552,7 +27554,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>31.76164565717806</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
         <v>155.4504749272583</v>
@@ -27579,13 +27581,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>62.72157442133235</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>123.7808623672197</v>
       </c>
       <c r="S4" t="n">
-        <v>224.0165980369723</v>
+        <v>170.5040690270225</v>
       </c>
       <c r="T4" t="n">
         <v>227.9455894282815</v>
@@ -27622,13 +27624,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>176.4125256339814</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>201.358201303431</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>396.1010274296599</v>
+        <v>187.8898775365355</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -27637,7 +27639,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27658,25 +27660,25 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>3.502225147964936</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27698,19 +27700,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>92.46572744736817</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27740,16 +27742,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -27758,7 +27760,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>28.09303498144112</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27783,7 +27785,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>12.23408043756325</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.9909793584588</v>
@@ -27819,7 +27821,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -27850,31 +27852,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E8" t="n">
-        <v>176.4125256339814</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>231.8333861825618</v>
       </c>
       <c r="H8" t="n">
-        <v>180.6334679913762</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27895,7 +27897,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
@@ -27907,10 +27909,10 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27929,7 +27931,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>93.77034275536734</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -27953,7 +27955,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27983,19 +27985,19 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
-        <v>0.2551407651970692</v>
+        <v>57.27523188042647</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -28014,7 +28016,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>15.42850543284436</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28056,7 +28058,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -34699,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>104.0555615261842</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="L2" t="n">
-        <v>181.8947995804632</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="M2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>116.7815764794778</v>
+        <v>51.35040662570936</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34778,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="L3" t="n">
-        <v>205.5178444382804</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="M3" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>197.2140931478448</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>51.35040662570936</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34942,16 +34944,16 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>171.5974510766996</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N5" t="n">
-        <v>205.5178444382804</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O5" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35015,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>205.5178444382804</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>91.61977832229879</v>
+        <v>169.9091475161415</v>
       </c>
       <c r="O6" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35173,16 +35175,16 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L8" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>205.5178444382804</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N8" t="n">
-        <v>185.0873001866707</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O8" t="n">
         <v>150.7019698410586</v>
@@ -35252,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>205.5178444382804</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="N9" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>127.1185794980172</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,22 +35412,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>70.13516816460341</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L11" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>205.5178444382804</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N11" t="n">
-        <v>205.5178444382804</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O11" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35489,22 +35491,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>205.5178444382804</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>148.1480627106907</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O12" t="n">
-        <v>205.5178444382804</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P12" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>70.09551364982758</v>
@@ -35647,16 +35649,16 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L14" t="n">
-        <v>161.4642553288535</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
-        <v>205.5178444382804</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N14" t="n">
-        <v>205.5178444382804</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O14" t="n">
         <v>150.7019698410586</v>
@@ -35726,22 +35728,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>91.61977832229879</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O15" t="n">
-        <v>205.5178444382804</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P15" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35893,7 +35895,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N17" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O17" t="n">
         <v>150.7019698410586</v>
@@ -35963,13 +35965,13 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>232.285965523585</v>
+        <v>34.55702612384782</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
         <v>241.0142888776591</v>
@@ -35978,10 +35980,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>55.51629994036219</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36209,13 +36211,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>169.9067907798016</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36437,7 +36439,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36449,13 +36451,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
-        <v>161.1784674257276</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>161.1808241620674</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36914,13 +36916,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>232.285965523585</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M30" t="n">
-        <v>99.81127712997396</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
@@ -36929,7 +36931,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37157,13 +37159,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
+        <v>240.0046611659691</v>
+      </c>
+      <c r="O33" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="O33" t="n">
-        <v>55.51629994036219</v>
-      </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37385,10 +37387,10 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>241.0142888776591</v>
@@ -37397,10 +37399,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>43.28534947792182</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
         <v>70.09551364982758</v>
@@ -37622,22 +37624,22 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
+        <v>226.4350751681936</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N39" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O39" t="n">
-        <v>43.28534947792182</v>
-      </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
         <v>70.09551364982758</v>
@@ -37786,10 +37788,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
-        <v>81.03173866048648</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N41" t="n">
-        <v>205.5178444382804</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O41" t="n">
         <v>150.7019698410586</v>
@@ -37862,16 +37864,16 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>205.5178444382804</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N42" t="n">
-        <v>148.1480627106907</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P42" t="n">
         <v>184.4883612256069</v>
@@ -38023,10 +38025,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
-        <v>81.03173866048648</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N44" t="n">
-        <v>205.5178444382804</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O44" t="n">
         <v>150.7019698410586</v>
@@ -38096,25 +38098,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>205.5178444382804</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O45" t="n">
-        <v>148.1480627106907</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P45" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_5_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_5_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1222287.074574623</v>
+        <v>1153435.778133186</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1151840.91874218</v>
+        <v>1151840.918742179</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14661612.74404854</v>
+        <v>14661612.74404855</v>
       </c>
     </row>
     <row r="9">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="G2" t="n">
+        <v>18.31780124109495</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
         <v>53.51252900994975</v>
-      </c>
-      <c r="C2" t="n">
-        <v>53.51252900994975</v>
-      </c>
-      <c r="D2" t="n">
-        <v>53.51252900994975</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>9.891109467671336</v>
-      </c>
-      <c r="G2" t="n">
-        <v>15.30273751513505</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -706,13 +706,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -788,7 +788,7 @@
         <v>53.51252900994975</v>
       </c>
       <c r="S3" t="n">
-        <v>46.38724422570589</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -800,10 +800,10 @@
         <v>53.51252900994975</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>46.38724422570589</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -858,22 +858,22 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>23.44046883036203</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>53.51252900994975</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>26.16190956546853</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -907,19 +907,19 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>71.01467844038824</v>
       </c>
       <c r="G5" t="n">
-        <v>227.4128599785995</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -943,22 +943,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -974,10 +974,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -986,7 +986,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>119.7767578427765</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1025,13 +1025,13 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1040,10 +1040,10 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>177.6799502220364</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1095,13 +1095,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>108.1960350243786</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1132,22 +1132,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>6.876045741711437</v>
-      </c>
       <c r="G8" t="n">
-        <v>183.4693513325733</v>
+        <v>40.47627913313511</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1189,16 +1189,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V8" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1223,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1235,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1262,22 +1262,22 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>168.9990982913122</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
-        <v>148.497753323051</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1332,13 +1332,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
     </row>
     <row r="11">
@@ -1369,31 +1369,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>72.47049842454879</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
       <c r="G11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>94.41048699370604</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1414,7 +1414,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>149.8691179411497</v>
@@ -1454,25 +1454,25 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>57.3002122248994</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>63.82415468811691</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -1508,7 +1508,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -1517,7 +1517,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1548,13 +1548,13 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1593,7 +1593,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1609,70 +1609,70 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>9.234466016111838</v>
       </c>
       <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T14" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="F14" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="G14" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H14" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" t="n">
-        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1688,28 +1688,28 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>73.3474123069911</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>71.04758922419722</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1733,13 +1733,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -1748,7 +1748,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1785,13 +1785,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1827,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1858,7 +1858,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1891,28 +1891,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V17" t="n">
-        <v>112.3289263072337</v>
-      </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="18">
@@ -1925,25 +1925,25 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>130.7311690450601</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>85.72024486005427</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1976,7 +1976,7 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -1985,10 +1985,10 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2004,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2058,7 +2058,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2098,13 +2098,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="H20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>52.42556848774752</v>
+        <v>58.39471844666277</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2162,7 +2162,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2174,7 +2174,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>34.66067414728059</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2183,7 +2183,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2210,22 +2210,22 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>159.2222148998135</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2253,49 +2253,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2326,67 +2326,67 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S23" t="n">
+        <v>62.4162677022923</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y23" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I23" t="n">
-        <v>200.3360962888296</v>
-      </c>
-      <c r="J23" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0</v>
-      </c>
-      <c r="X23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2399,28 +2399,28 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2444,22 +2444,22 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>23.10070491240162</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>62.88143347497289</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2544,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2554,22 +2554,22 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C26" t="n">
-        <v>202.2946864288972</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2602,10 +2602,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>52.42556848774752</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -2614,7 +2614,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2623,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2633,22 +2633,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>36.40754942051851</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>68.67434453202564</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
         <v>112.2354442364965</v>
@@ -2657,7 +2657,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2681,13 +2681,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -2696,13 +2696,13 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2803,19 +2803,19 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>90.38893773807641</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -2836,25 +2836,25 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V29" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W29" t="n">
-        <v>3.26531605719669</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2876,7 +2876,7 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -2894,7 +2894,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2918,13 +2918,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>113.9414575496879</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -2933,13 +2933,13 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>203.7523954674333</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -2958,7 +2958,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2991,7 +2991,7 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -3015,7 +3015,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3043,13 +3043,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>19.72793538656374</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="V32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3131,7 +3131,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3155,13 +3155,13 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>50.05769526855297</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>49.3111039422953</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3274,7 +3274,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E35" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -3289,7 +3289,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3310,7 +3310,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -3322,10 +3322,10 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>190.3453970742849</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W35" t="n">
         <v>241.0142888776591</v>
@@ -3334,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3350,7 +3350,7 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
@@ -3362,10 +3362,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>106.0644964958682</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>41.1162836713672</v>
       </c>
       <c r="J36" t="n">
         <v>0.7465913262578567</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -3483,13 +3483,13 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
+        <v>0</v>
+      </c>
+      <c r="X37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="W37" t="n">
-        <v>0</v>
-      </c>
-      <c r="X37" t="n">
-        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3505,22 +3505,22 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3568,7 +3568,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3590,22 +3590,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>116.8557422159254</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>70.69951467076297</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -3660,58 +3660,58 @@
         </is>
       </c>
       <c r="B40" t="n">
+        <v>0</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C40" t="n">
-        <v>0</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3739,23 +3739,23 @@
         </is>
       </c>
       <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C41" t="n">
-        <v>0</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
@@ -3763,7 +3763,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3787,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>9.234466016111892</v>
       </c>
       <c r="S41" t="n">
         <v>209.0200695862453</v>
@@ -3796,7 +3796,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>112.3289263072337</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3818,16 +3818,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -3842,7 +3842,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3872,22 +3872,22 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>29.05241763862484</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>85.22343841471898</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3897,58 +3897,58 @@
         </is>
       </c>
       <c r="B43" t="n">
+        <v>0</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C43" t="n">
-        <v>0</v>
-      </c>
-      <c r="D43" t="n">
-        <v>0</v>
-      </c>
-      <c r="E43" t="n">
-        <v>0</v>
-      </c>
-      <c r="F43" t="n">
-        <v>0</v>
-      </c>
-      <c r="G43" t="n">
-        <v>0</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" t="n">
-        <v>0</v>
-      </c>
-      <c r="S43" t="n">
-        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3979,10 +3979,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -3994,10 +3994,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>21.18375537072436</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4021,22 +4021,22 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>1.809496073036132</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4055,19 +4055,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -4076,7 +4076,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0.7465913262578567</v>
@@ -4103,16 +4103,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>70.02511320453034</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>133.8354120310577</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4124,7 +4124,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4194,7 +4194,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>149.9054410655621</v>
+        <v>95.85238145955221</v>
       </c>
       <c r="C2" t="n">
         <v>95.85238145955221</v>
       </c>
       <c r="D2" t="n">
-        <v>41.79932185354235</v>
+        <v>95.85238145955221</v>
       </c>
       <c r="E2" t="n">
-        <v>41.79932185354235</v>
+        <v>95.85238145955221</v>
       </c>
       <c r="F2" t="n">
-        <v>31.80830218922787</v>
+        <v>88.90688071034873</v>
       </c>
       <c r="G2" t="n">
-        <v>16.35099156787933</v>
+        <v>70.40405117388919</v>
       </c>
       <c r="H2" t="n">
-        <v>16.35099156787933</v>
+        <v>70.40405117388919</v>
       </c>
       <c r="I2" t="n">
         <v>16.35099156787933</v>
@@ -4339,13 +4339,13 @@
         <v>110.2358097604965</v>
       </c>
       <c r="M2" t="n">
-        <v>110.2358097604965</v>
+        <v>163.2132134803467</v>
       </c>
       <c r="N2" t="n">
-        <v>110.2358097604965</v>
+        <v>163.2132134803467</v>
       </c>
       <c r="O2" t="n">
-        <v>161.0727123199487</v>
+        <v>214.050116039799</v>
       </c>
       <c r="P2" t="n">
         <v>214.050116039799</v>
@@ -4354,28 +4354,28 @@
         <v>203.9585006715719</v>
       </c>
       <c r="R2" t="n">
-        <v>203.9585006715719</v>
+        <v>149.9054410655621</v>
       </c>
       <c r="S2" t="n">
-        <v>203.9585006715719</v>
+        <v>149.9054410655621</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9585006715719</v>
+        <v>95.85238145955221</v>
       </c>
       <c r="U2" t="n">
-        <v>203.9585006715719</v>
+        <v>95.85238145955221</v>
       </c>
       <c r="V2" t="n">
-        <v>203.9585006715719</v>
+        <v>95.85238145955221</v>
       </c>
       <c r="W2" t="n">
-        <v>203.9585006715719</v>
+        <v>95.85238145955221</v>
       </c>
       <c r="X2" t="n">
-        <v>203.9585006715719</v>
+        <v>95.85238145955221</v>
       </c>
       <c r="Y2" t="n">
-        <v>203.9585006715719</v>
+        <v>95.85238145955221</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>59.08819457959154</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="C3" t="n">
-        <v>59.08819457959154</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="D3" t="n">
-        <v>59.08819457959154</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="E3" t="n">
-        <v>59.08819457959154</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="F3" t="n">
-        <v>59.08819457959154</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="G3" t="n">
-        <v>59.08819457959154</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="H3" t="n">
-        <v>59.08819457959154</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="I3" t="n">
         <v>5.035134973581694</v>
@@ -4412,22 +4412,22 @@
         <v>4.28100232079598</v>
       </c>
       <c r="K3" t="n">
+        <v>4.28100232079598</v>
+      </c>
+      <c r="L3" t="n">
         <v>57.25840604064623</v>
-      </c>
-      <c r="L3" t="n">
-        <v>110.2358097604965</v>
       </c>
       <c r="M3" t="n">
         <v>110.2358097604965</v>
       </c>
       <c r="N3" t="n">
-        <v>110.2358097604965</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="O3" t="n">
-        <v>110.2358097604965</v>
+        <v>214.050116039799</v>
       </c>
       <c r="P3" t="n">
-        <v>161.0727123199487</v>
+        <v>214.050116039799</v>
       </c>
       <c r="Q3" t="n">
         <v>214.050116039799</v>
@@ -4436,25 +4436,25 @@
         <v>159.9970564337892</v>
       </c>
       <c r="S3" t="n">
-        <v>113.1412541856014</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="T3" t="n">
-        <v>113.1412541856014</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="U3" t="n">
-        <v>113.1412541856014</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="V3" t="n">
-        <v>59.08819457959154</v>
+        <v>105.9439968277793</v>
       </c>
       <c r="W3" t="n">
         <v>59.08819457959154</v>
       </c>
       <c r="X3" t="n">
-        <v>59.08819457959154</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="Y3" t="n">
-        <v>59.08819457959154</v>
+        <v>5.035134973581694</v>
       </c>
     </row>
     <row r="4">
@@ -4506,19 +4506,19 @@
         <v>138.8132928110667</v>
       </c>
       <c r="P4" t="n">
-        <v>136.0643627756056</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="Q4" t="n">
-        <v>112.3871215328157</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="R4" t="n">
-        <v>58.33406192680583</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="S4" t="n">
-        <v>4.28100232079598</v>
+        <v>84.76023320505688</v>
       </c>
       <c r="T4" t="n">
-        <v>4.28100232079598</v>
+        <v>30.70717359904702</v>
       </c>
       <c r="U4" t="n">
         <v>4.28100232079598</v>
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>255.9366034337592</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="C5" t="n">
-        <v>255.9366034337592</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="D5" t="n">
-        <v>255.9366034337592</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="E5" t="n">
-        <v>255.9366034337592</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="F5" t="n">
-        <v>248.9911026845557</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="G5" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4591,28 +4591,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>742.8341567219593</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T5" t="n">
-        <v>742.8341567219593</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U5" t="n">
-        <v>499.3853800778592</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V5" t="n">
-        <v>499.3853800778592</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W5" t="n">
-        <v>255.9366034337592</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X5" t="n">
-        <v>255.9366034337592</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y5" t="n">
-        <v>255.9366034337592</v>
+        <v>802.5825927271064</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>382.9414955037181</v>
+        <v>588.0815197256143</v>
       </c>
       <c r="C6" t="n">
-        <v>382.9414955037181</v>
+        <v>413.6284904444873</v>
       </c>
       <c r="D6" t="n">
-        <v>382.9414955037181</v>
+        <v>413.6284904444873</v>
       </c>
       <c r="E6" t="n">
-        <v>223.7040404982626</v>
+        <v>254.3910354390318</v>
       </c>
       <c r="F6" t="n">
-        <v>223.7040404982626</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="G6" t="n">
-        <v>223.7040404982626</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H6" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I6" t="n">
         <v>20.03527576299844</v>
@@ -4649,22 +4649,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>249.2442489785619</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M6" t="n">
-        <v>487.8483949674443</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N6" t="n">
-        <v>656.0584510084244</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4673,25 +4673,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>562.4161926976942</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V6" t="n">
-        <v>562.4161926976942</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W6" t="n">
-        <v>562.4161926976942</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X6" t="n">
-        <v>382.9414955037181</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y6" t="n">
-        <v>382.9414955037181</v>
+        <v>756.2968567456824</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.28114311021272</v>
+        <v>852.019301208126</v>
       </c>
       <c r="C7" t="n">
-        <v>19.28114311021272</v>
+        <v>852.019301208126</v>
       </c>
       <c r="D7" t="n">
-        <v>19.28114311021272</v>
+        <v>852.019301208126</v>
       </c>
       <c r="E7" t="n">
-        <v>19.28114311021272</v>
+        <v>852.019301208126</v>
       </c>
       <c r="F7" t="n">
-        <v>19.28114311021272</v>
+        <v>852.019301208126</v>
       </c>
       <c r="G7" t="n">
-        <v>19.28114311021272</v>
+        <v>852.019301208126</v>
       </c>
       <c r="H7" t="n">
-        <v>19.28114311021272</v>
+        <v>852.019301208126</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>852.019301208126</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>852.019301208126</v>
       </c>
       <c r="K7" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L7" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M7" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N7" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O7" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>961.308225475175</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>961.308225475175</v>
       </c>
       <c r="R7" t="n">
-        <v>19.28114311021272</v>
+        <v>961.308225475175</v>
       </c>
       <c r="S7" t="n">
-        <v>19.28114311021272</v>
+        <v>961.308225475175</v>
       </c>
       <c r="T7" t="n">
-        <v>19.28114311021272</v>
+        <v>961.308225475175</v>
       </c>
       <c r="U7" t="n">
-        <v>19.28114311021272</v>
+        <v>961.308225475175</v>
       </c>
       <c r="V7" t="n">
-        <v>19.28114311021272</v>
+        <v>961.308225475175</v>
       </c>
       <c r="W7" t="n">
-        <v>19.28114311021272</v>
+        <v>961.308225475175</v>
       </c>
       <c r="X7" t="n">
-        <v>19.28114311021272</v>
+        <v>852.019301208126</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.28114311021272</v>
+        <v>852.019301208126</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>467.067986854209</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="C8" t="n">
-        <v>467.067986854209</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="D8" t="n">
-        <v>223.6192102101089</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="E8" t="n">
-        <v>223.6192102101089</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="F8" t="n">
-        <v>216.6737094609055</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="G8" t="n">
         <v>31.35113235729608</v>
@@ -4828,28 +4828,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U8" t="n">
-        <v>710.516763498309</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V8" t="n">
-        <v>467.067986854209</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W8" t="n">
-        <v>467.067986854209</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X8" t="n">
-        <v>467.067986854209</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="Y8" t="n">
-        <v>467.067986854209</v>
+        <v>559.1338160830064</v>
       </c>
     </row>
     <row r="9">
@@ -4859,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>168.9696854242497</v>
+        <v>314.750110744579</v>
       </c>
       <c r="C9" t="n">
-        <v>168.9696854242497</v>
+        <v>314.750110744579</v>
       </c>
       <c r="D9" t="n">
-        <v>20.03527576299844</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="E9" t="n">
-        <v>20.03527576299844</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
@@ -4892,16 +4892,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="M9" t="n">
-        <v>304.2053859195205</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N9" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O9" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P9" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
@@ -4910,25 +4910,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>562.4161926976942</v>
+        <v>793.3509956204218</v>
       </c>
       <c r="V9" t="n">
-        <v>562.4161926976942</v>
+        <v>558.1988873886792</v>
       </c>
       <c r="W9" t="n">
-        <v>318.9674160535941</v>
+        <v>314.750110744579</v>
       </c>
       <c r="X9" t="n">
-        <v>168.9696854242497</v>
+        <v>314.750110744579</v>
       </c>
       <c r="Y9" t="n">
-        <v>168.9696854242497</v>
+        <v>314.750110744579</v>
       </c>
     </row>
     <row r="10">
@@ -4980,31 +4980,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y10" t="n">
         <v>19.28114311021272</v>
@@ -5017,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>518.2486856454962</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="C11" t="n">
-        <v>518.2486856454962</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="D11" t="n">
-        <v>518.2486856454962</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="E11" t="n">
-        <v>274.7999090013961</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="F11" t="n">
-        <v>274.7999090013961</v>
+        <v>114.6452713866835</v>
       </c>
       <c r="G11" t="n">
-        <v>31.35113235729608</v>
+        <v>114.6452713866835</v>
       </c>
       <c r="H11" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I11" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J11" t="n">
         <v>19.28114311021272</v>
@@ -5062,31 +5062,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R11" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S11" t="n">
-        <v>591.4512093066566</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T11" t="n">
-        <v>591.4512093066566</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="U11" t="n">
-        <v>591.4512093066566</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="V11" t="n">
-        <v>591.4512093066566</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="W11" t="n">
-        <v>591.4512093066566</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="X11" t="n">
-        <v>591.4512093066566</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="Y11" t="n">
-        <v>591.4512093066566</v>
+        <v>601.5428246748836</v>
       </c>
     </row>
     <row r="12">
@@ -5096,49 +5096,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>362.4348659156472</v>
+        <v>226.0945550188371</v>
       </c>
       <c r="C12" t="n">
-        <v>362.4348659156472</v>
+        <v>226.0945550188371</v>
       </c>
       <c r="D12" t="n">
-        <v>362.4348659156472</v>
+        <v>77.16014535758586</v>
       </c>
       <c r="E12" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F12" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G12" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H12" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I12" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J12" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L12" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M12" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N12" t="n">
-        <v>851.8101010141643</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O12" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P12" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q12" t="n">
         <v>964.0571555106362</v>
@@ -5147,25 +5147,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S12" t="n">
-        <v>798.4187829442119</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T12" t="n">
-        <v>798.4187829442119</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U12" t="n">
-        <v>570.195164680601</v>
+        <v>461.2466632505798</v>
       </c>
       <c r="V12" t="n">
-        <v>570.195164680601</v>
+        <v>226.0945550188371</v>
       </c>
       <c r="W12" t="n">
-        <v>570.195164680601</v>
+        <v>226.0945550188371</v>
       </c>
       <c r="X12" t="n">
-        <v>570.195164680601</v>
+        <v>226.0945550188371</v>
       </c>
       <c r="Y12" t="n">
-        <v>362.4348659156472</v>
+        <v>226.0945550188371</v>
       </c>
     </row>
     <row r="13">
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I13" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J13" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K13" t="n">
         <v>19.28114311021272</v>
@@ -5241,10 +5241,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="X13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="14">
@@ -5254,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>964.0571555106362</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="C14" t="n">
-        <v>964.0571555106362</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="D14" t="n">
-        <v>964.0571555106362</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E14" t="n">
-        <v>720.6083788665362</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F14" t="n">
-        <v>477.1596022224361</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G14" t="n">
-        <v>233.7108255783361</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H14" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I14" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J14" t="n">
         <v>19.28114311021272</v>
@@ -5305,25 +5305,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S14" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T14" t="n">
-        <v>964.0571555106362</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U14" t="n">
-        <v>964.0571555106362</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="V14" t="n">
-        <v>964.0571555106362</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="W14" t="n">
-        <v>964.0571555106362</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="X14" t="n">
-        <v>964.0571555106362</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="Y14" t="n">
-        <v>964.0571555106362</v>
+        <v>284.1276524520142</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>182.1001465464452</v>
+        <v>555.4877027295624</v>
       </c>
       <c r="C15" t="n">
-        <v>182.1001465464452</v>
+        <v>381.0346734484355</v>
       </c>
       <c r="D15" t="n">
-        <v>182.1001465464452</v>
+        <v>232.1002637871842</v>
       </c>
       <c r="E15" t="n">
-        <v>182.1001465464452</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="F15" t="n">
-        <v>182.1001465464452</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G15" t="n">
-        <v>182.1001465464452</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H15" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I15" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J15" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M15" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N15" t="n">
-        <v>726.4525409563269</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O15" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P15" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q15" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S15" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T15" t="n">
-        <v>660.701031422288</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U15" t="n">
-        <v>660.701031422288</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V15" t="n">
-        <v>425.5489231905453</v>
+        <v>555.4877027295624</v>
       </c>
       <c r="W15" t="n">
-        <v>182.1001465464452</v>
+        <v>555.4877027295624</v>
       </c>
       <c r="X15" t="n">
-        <v>182.1001465464452</v>
+        <v>555.4877027295624</v>
       </c>
       <c r="Y15" t="n">
-        <v>182.1001465464452</v>
+        <v>555.4877027295624</v>
       </c>
     </row>
     <row r="16">
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I16" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K16" t="n">
         <v>19.28114311021272</v>
@@ -5475,13 +5475,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C17" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D17" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E17" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F17" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G17" t="n">
         <v>19.28114311021272</v>
@@ -5539,28 +5539,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S17" t="n">
-        <v>601.5428246748836</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T17" t="n">
-        <v>376.1934816808115</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U17" t="n">
-        <v>132.7447050367114</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V17" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W17" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X17" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y17" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="18">
@@ -5570,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>964.0571555106362</v>
+        <v>310.5702840197694</v>
       </c>
       <c r="C18" t="n">
-        <v>789.6041262295092</v>
+        <v>310.5702840197694</v>
       </c>
       <c r="D18" t="n">
-        <v>640.669716568258</v>
+        <v>310.5702840197694</v>
       </c>
       <c r="E18" t="n">
-        <v>481.4322615628025</v>
+        <v>151.3328290143139</v>
       </c>
       <c r="F18" t="n">
-        <v>334.8977035896875</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G18" t="n">
-        <v>196.166878172303</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H18" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I18" t="n">
         <v>19.28114311021272</v>
@@ -5600,19 +5600,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>178.8501590306595</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>417.4543050195419</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N18" t="n">
-        <v>656.0584510084244</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O18" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P18" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
@@ -5624,22 +5624,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T18" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U18" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V18" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W18" t="n">
-        <v>964.0571555106362</v>
+        <v>518.4217842253022</v>
       </c>
       <c r="X18" t="n">
-        <v>964.0571555106362</v>
+        <v>310.5702840197694</v>
       </c>
       <c r="Y18" t="n">
-        <v>964.0571555106362</v>
+        <v>310.5702840197694</v>
       </c>
     </row>
     <row r="19">
@@ -5649,7 +5649,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C19" t="n">
         <v>19.28114311021272</v>
@@ -5706,19 +5706,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="20">
@@ -5728,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>506.1786963984129</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C20" t="n">
-        <v>506.1786963984129</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D20" t="n">
-        <v>506.1786963984129</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E20" t="n">
-        <v>506.1786963984129</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F20" t="n">
-        <v>506.1786963984129</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G20" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H20" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I20" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J20" t="n">
         <v>19.28114311021272</v>
@@ -5779,25 +5779,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S20" t="n">
-        <v>749.627473042513</v>
+        <v>743.5980286395683</v>
       </c>
       <c r="T20" t="n">
-        <v>749.627473042513</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="U20" t="n">
-        <v>749.627473042513</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="V20" t="n">
-        <v>749.627473042513</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="W20" t="n">
-        <v>749.627473042513</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="X20" t="n">
-        <v>749.627473042513</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="Y20" t="n">
-        <v>749.627473042513</v>
+        <v>274.7999090013961</v>
       </c>
     </row>
     <row r="21">
@@ -5807,28 +5807,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>193.7341723913397</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="C21" t="n">
-        <v>19.28114311021272</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="D21" t="n">
-        <v>19.28114311021272</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="E21" t="n">
-        <v>19.28114311021272</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="F21" t="n">
-        <v>19.28114311021272</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="G21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
@@ -5840,16 +5840,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>613.2059550252818</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N21" t="n">
-        <v>851.8101010141643</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O21" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P21" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
@@ -5858,25 +5858,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>790.6398109613051</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U21" t="n">
-        <v>562.4161926976942</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V21" t="n">
-        <v>401.5856725968725</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W21" t="n">
-        <v>401.5856725968725</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="X21" t="n">
-        <v>193.7341723913397</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="Y21" t="n">
-        <v>193.7341723913397</v>
+        <v>55.04605772994853</v>
       </c>
     </row>
     <row r="22">
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G22" t="n">
         <v>19.28114311021272</v>
@@ -5943,19 +5943,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="23">
@@ -5965,31 +5965,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C23" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D23" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E23" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F23" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G23" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I23" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J23" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021275</v>
       </c>
       <c r="K23" t="n">
         <v>122.2961490211351</v>
@@ -6013,28 +6013,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S23" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T23" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U23" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V23" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W23" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X23" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y23" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="24">
@@ -6044,46 +6044,46 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>900.5405560409666</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="C24" t="n">
-        <v>726.0875267598396</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="D24" t="n">
-        <v>577.1531170985884</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="E24" t="n">
-        <v>417.9156620931329</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="F24" t="n">
-        <v>271.3811041200179</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="G24" t="n">
-        <v>132.6502787026334</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>257.8852890990952</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N24" t="n">
-        <v>496.4894350879777</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O24" t="n">
-        <v>735.0935810768601</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P24" t="n">
         <v>894.6625969973069</v>
@@ -6092,28 +6092,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S24" t="n">
-        <v>964.0571555106362</v>
+        <v>839.5535806974597</v>
       </c>
       <c r="T24" t="n">
-        <v>964.0571555106362</v>
+        <v>637.3669860562256</v>
       </c>
       <c r="U24" t="n">
-        <v>964.0571555106362</v>
+        <v>637.3669860562256</v>
       </c>
       <c r="V24" t="n">
-        <v>900.5405560409666</v>
+        <v>402.214877824483</v>
       </c>
       <c r="W24" t="n">
-        <v>900.5405560409666</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="X24" t="n">
-        <v>900.5405560409666</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="Y24" t="n">
-        <v>900.5405560409666</v>
+        <v>158.7661011803829</v>
       </c>
     </row>
     <row r="25">
@@ -6171,25 +6171,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
         <v>19.28114311021272</v>
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>223.6192102101089</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C26" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
       <c r="D26" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E26" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G26" t="n">
         <v>19.28114311021272</v>
@@ -6250,28 +6250,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S26" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T26" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U26" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V26" t="n">
-        <v>710.516763498309</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W26" t="n">
-        <v>710.516763498309</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X26" t="n">
-        <v>710.516763498309</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y26" t="n">
-        <v>467.067986854209</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="27">
@@ -6281,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>344.6327430815143</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="C27" t="n">
-        <v>170.1797138003873</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="D27" t="n">
-        <v>133.4044113554191</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="E27" t="n">
-        <v>133.4044113554191</v>
+        <v>417.9156620931329</v>
       </c>
       <c r="F27" t="n">
-        <v>133.4044113554191</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G27" t="n">
-        <v>133.4044113554191</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
@@ -6311,10 +6311,10 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M27" t="n">
-        <v>234.810827406191</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N27" t="n">
         <v>473.4149733950735</v>
@@ -6329,28 +6329,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S27" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T27" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U27" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V27" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="W27" t="n">
-        <v>720.6083788665362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="X27" t="n">
-        <v>720.6083788665362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="Y27" t="n">
-        <v>512.8480801015824</v>
+        <v>487.2836868729568</v>
       </c>
     </row>
     <row r="28">
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>262.7299197543128</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="C29" t="n">
-        <v>262.7299197543128</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="D29" t="n">
-        <v>262.7299197543128</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="E29" t="n">
-        <v>262.7299197543128</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="F29" t="n">
-        <v>19.28114311021272</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="G29" t="n">
-        <v>19.28114311021272</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="H29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J29" t="n">
         <v>19.28114311021272</v>
@@ -6484,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S29" t="n">
-        <v>752.9257720901863</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T29" t="n">
-        <v>752.9257720901863</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U29" t="n">
-        <v>509.4769954460863</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V29" t="n">
-        <v>266.0282188019862</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="W29" t="n">
-        <v>262.7299197543128</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="X29" t="n">
-        <v>262.7299197543128</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="Y29" t="n">
-        <v>262.7299197543128</v>
+        <v>122.6530896684844</v>
       </c>
     </row>
     <row r="30">
@@ -6518,28 +6518,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>306.9463781888485</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="C30" t="n">
-        <v>306.9463781888485</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="D30" t="n">
-        <v>158.0119685275972</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="E30" t="n">
-        <v>158.0119685275972</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="F30" t="n">
-        <v>158.0119685275972</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="G30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
@@ -6548,46 +6548,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>304.2053859195205</v>
+        <v>178.8501590306595</v>
       </c>
       <c r="M30" t="n">
-        <v>304.2053859195205</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N30" t="n">
-        <v>542.809531908403</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O30" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P30" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S30" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T30" t="n">
-        <v>964.0571555106362</v>
+        <v>574.3779001508697</v>
       </c>
       <c r="U30" t="n">
-        <v>964.0571555106362</v>
+        <v>574.3779001508697</v>
       </c>
       <c r="V30" t="n">
-        <v>964.0571555106362</v>
+        <v>574.3779001508697</v>
       </c>
       <c r="W30" t="n">
-        <v>720.6083788665362</v>
+        <v>574.3779001508697</v>
       </c>
       <c r="X30" t="n">
-        <v>512.7568786610034</v>
+        <v>366.5263999453368</v>
       </c>
       <c r="Y30" t="n">
-        <v>306.9463781888485</v>
+        <v>158.7661011803829</v>
       </c>
     </row>
     <row r="31">
@@ -6597,13 +6597,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C31" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D31" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E31" t="n">
         <v>19.28114311021272</v>
@@ -6639,34 +6639,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X31" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y31" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="C32" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="D32" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="E32" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="F32" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="G32" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H32" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I32" t="n">
         <v>19.28114311021272</v>
@@ -6727,25 +6727,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>964.0571555106362</v>
+        <v>944.1299480494607</v>
       </c>
       <c r="T32" t="n">
-        <v>964.0571555106362</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="U32" t="n">
-        <v>720.6083788665362</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="V32" t="n">
-        <v>477.1596022224361</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="W32" t="n">
-        <v>262.7299197543128</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="X32" t="n">
-        <v>262.7299197543128</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="Y32" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>487.8483949674443</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N33" t="n">
-        <v>725.4530095217538</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O33" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P33" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>913.4938269565423</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>913.4938269565423</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>913.4938269565423</v>
+        <v>914.2479596093278</v>
       </c>
       <c r="U33" t="n">
-        <v>913.4938269565423</v>
+        <v>914.2479596093278</v>
       </c>
       <c r="V33" t="n">
-        <v>678.3417187247995</v>
+        <v>679.0958513775852</v>
       </c>
       <c r="W33" t="n">
-        <v>434.8929420806995</v>
+        <v>435.6470747334852</v>
       </c>
       <c r="X33" t="n">
-        <v>227.0414418751666</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="35">
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>477.1596022224361</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C35" t="n">
-        <v>477.1596022224361</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D35" t="n">
-        <v>233.7108255783361</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J35" t="n">
         <v>19.28114311021272</v>
@@ -6958,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U35" t="n">
-        <v>964.0571555106362</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="V35" t="n">
-        <v>964.0571555106362</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="W35" t="n">
-        <v>720.6083788665362</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="X35" t="n">
-        <v>720.6083788665362</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="Y35" t="n">
-        <v>477.1596022224361</v>
+        <v>274.7999090013961</v>
       </c>
     </row>
     <row r="36">
@@ -6992,25 +6992,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>720.6083788665362</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="C36" t="n">
-        <v>720.6083788665362</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="D36" t="n">
-        <v>571.6739692052849</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="E36" t="n">
-        <v>412.4365141998294</v>
+        <v>460.2013944139663</v>
       </c>
       <c r="F36" t="n">
-        <v>265.9019562267144</v>
+        <v>313.6668364408513</v>
       </c>
       <c r="G36" t="n">
-        <v>127.17113080933</v>
+        <v>174.9360110234668</v>
       </c>
       <c r="H36" t="n">
-        <v>20.03527576299844</v>
+        <v>61.56687543104611</v>
       </c>
       <c r="I36" t="n">
         <v>20.03527576299844</v>
@@ -7019,16 +7019,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>257.8852890990952</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N36" t="n">
-        <v>496.4894350879777</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O36" t="n">
         <v>712.019119383956</v>
@@ -7040,28 +7040,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W36" t="n">
-        <v>720.6083788665362</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="X36" t="n">
-        <v>720.6083788665362</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="Y36" t="n">
-        <v>720.6083788665362</v>
+        <v>619.4388494194218</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L37" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M37" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N37" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="C38" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="D38" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="E38" t="n">
         <v>720.6083788665362</v>
       </c>
-      <c r="C38" t="n">
-        <v>506.1786963984129</v>
-      </c>
-      <c r="D38" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="E38" t="n">
-        <v>19.28114311021272</v>
-      </c>
       <c r="F38" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="G38" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="H38" t="n">
         <v>19.28114311021272</v>
@@ -7216,10 +7216,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="X38" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y38" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>720.6083788665362</v>
+        <v>649.1947276839472</v>
       </c>
       <c r="C39" t="n">
-        <v>546.1553495854092</v>
+        <v>474.7416984028202</v>
       </c>
       <c r="D39" t="n">
-        <v>397.220939924158</v>
+        <v>325.807288741569</v>
       </c>
       <c r="E39" t="n">
-        <v>397.220939924158</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="F39" t="n">
-        <v>250.6863819510429</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G39" t="n">
-        <v>132.6502787026334</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>473.4149733950735</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N39" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O39" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P39" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>964.0571555106362</v>
+        <v>892.6435043280474</v>
       </c>
       <c r="S39" t="n">
-        <v>964.0571555106362</v>
+        <v>892.6435043280474</v>
       </c>
       <c r="T39" t="n">
-        <v>964.0571555106362</v>
+        <v>892.6435043280474</v>
       </c>
       <c r="U39" t="n">
-        <v>964.0571555106362</v>
+        <v>892.6435043280474</v>
       </c>
       <c r="V39" t="n">
-        <v>964.0571555106362</v>
+        <v>892.6435043280474</v>
       </c>
       <c r="W39" t="n">
-        <v>720.6083788665362</v>
+        <v>649.1947276839472</v>
       </c>
       <c r="X39" t="n">
-        <v>720.6083788665362</v>
+        <v>649.1947276839472</v>
       </c>
       <c r="Y39" t="n">
-        <v>720.6083788665362</v>
+        <v>649.1947276839472</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L40" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M40" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N40" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="41">
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C41" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D41" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E41" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F41" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G41" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H41" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I41" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J41" t="n">
         <v>19.28114311021272</v>
@@ -7435,28 +7435,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R41" t="n">
-        <v>812.6742080953335</v>
+        <v>954.7294120600181</v>
       </c>
       <c r="S41" t="n">
-        <v>601.5428246748836</v>
+        <v>743.5980286395683</v>
       </c>
       <c r="T41" t="n">
-        <v>376.1934816808115</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="U41" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="V41" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="W41" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="X41" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="Y41" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
     </row>
     <row r="42">
@@ -7466,28 +7466,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>501.9060370580465</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C42" t="n">
-        <v>327.4530077769195</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D42" t="n">
-        <v>178.5185981156682</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J42" t="n">
         <v>19.28114311021272</v>
@@ -7496,19 +7496,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L42" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M42" t="n">
-        <v>234.810827406191</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N42" t="n">
-        <v>473.4149733950735</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O42" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P42" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q42" t="n">
         <v>964.0571555106362</v>
@@ -7520,22 +7520,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T42" t="n">
-        <v>964.0571555106362</v>
+        <v>934.7112791079849</v>
       </c>
       <c r="U42" t="n">
-        <v>964.0571555106362</v>
+        <v>706.487660844374</v>
       </c>
       <c r="V42" t="n">
-        <v>964.0571555106362</v>
+        <v>471.3355526126313</v>
       </c>
       <c r="W42" t="n">
-        <v>964.0571555106362</v>
+        <v>227.8867759685313</v>
       </c>
       <c r="X42" t="n">
-        <v>756.2056553051034</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y42" t="n">
-        <v>670.1213740781145</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L43" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M43" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N43" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>40.6788758079141</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="C44" t="n">
-        <v>40.6788758079141</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="D44" t="n">
-        <v>40.6788758079141</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="E44" t="n">
-        <v>40.6788758079141</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="F44" t="n">
-        <v>40.6788758079141</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="G44" t="n">
-        <v>40.6788758079141</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H44" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I44" t="n">
         <v>19.28114311021272</v>
@@ -7669,31 +7669,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="R44" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="S44" t="n">
-        <v>752.9257720901863</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="T44" t="n">
-        <v>527.5764290961142</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="U44" t="n">
-        <v>527.5764290961142</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="V44" t="n">
-        <v>284.1276524520142</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="W44" t="n">
-        <v>284.1276524520142</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="X44" t="n">
-        <v>284.1276524520142</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="Y44" t="n">
-        <v>284.1276524520142</v>
+        <v>962.2293816994886</v>
       </c>
     </row>
     <row r="45">
@@ -7703,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>284.787934186969</v>
+        <v>489.9572726784918</v>
       </c>
       <c r="C45" t="n">
-        <v>110.334904905842</v>
+        <v>315.5042433973647</v>
       </c>
       <c r="D45" t="n">
-        <v>110.334904905842</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="E45" t="n">
-        <v>110.334904905842</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="F45" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G45" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H45" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I45" t="n">
         <v>20.03527576299844</v>
@@ -7730,49 +7730,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L45" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M45" t="n">
-        <v>374.6018090363993</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N45" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O45" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P45" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q45" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S45" t="n">
-        <v>862.8876260635219</v>
+        <v>893.3247179303025</v>
       </c>
       <c r="T45" t="n">
-        <v>862.8876260635219</v>
+        <v>893.3247179303025</v>
       </c>
       <c r="U45" t="n">
-        <v>727.7003411836656</v>
+        <v>893.3247179303025</v>
       </c>
       <c r="V45" t="n">
-        <v>492.5482329519229</v>
+        <v>658.1726096985599</v>
       </c>
       <c r="W45" t="n">
-        <v>492.5482329519229</v>
+        <v>658.1726096985599</v>
       </c>
       <c r="X45" t="n">
-        <v>492.5482329519229</v>
+        <v>658.1726096985599</v>
       </c>
       <c r="Y45" t="n">
-        <v>284.787934186969</v>
+        <v>658.1726096985599</v>
       </c>
     </row>
     <row r="46">
@@ -7842,16 +7842,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
   </sheetData>
@@ -7987,7 +7987,7 @@
         <v>289.278943979937</v>
       </c>
       <c r="M2" t="n">
-        <v>230.3462332272727</v>
+        <v>283.8587622372225</v>
       </c>
       <c r="N2" t="n">
         <v>229.4130635965909</v>
@@ -7996,7 +7996,7 @@
         <v>281.4486180473961</v>
       </c>
       <c r="P2" t="n">
-        <v>284.7455247652193</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8060,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>191.3539679843088</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
         <v>192.0669087898239</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>195.6465629319681</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>182.6921187090427</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>196.1087734543942</v>
       </c>
       <c r="P3" t="n">
-        <v>185.3248140400396</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>193.4943030959713</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,16 +8297,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>243.2069195535496</v>
       </c>
       <c r="M6" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>301.2508595994748</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
@@ -8315,7 +8315,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8455,7 +8455,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
@@ -8540,7 +8540,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>303.312501347746</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N9" t="n">
         <v>372.3560009609923</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8692,7 +8692,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
@@ -8771,7 +8771,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8783,13 +8783,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O12" t="n">
-        <v>185.8815939223662</v>
+        <v>198.1125443848066</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9008,7 +9008,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9017,16 +9017,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N15" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133072</v>
       </c>
       <c r="O15" t="n">
-        <v>382.6009056104135</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9248,22 +9248,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>173.111405903722</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O18" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9488,19 +9488,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>185.4193833999402</v>
       </c>
       <c r="N21" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>255.9771075721939</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9719,22 +9719,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N24" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>295.1552315763977</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9959,13 +9959,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>359.8407857361378</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N27" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
         <v>383.6105333221035</v>
@@ -10196,10 +10196,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>299.7328472056018</v>
+        <v>173.111405903722</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
         <v>372.3560009609923</v>
@@ -10208,10 +10208,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10430,25 +10430,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N33" t="n">
-        <v>371.3463732493024</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10667,19 +10667,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>360.302996258564</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
@@ -10825,7 +10825,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10904,16 +10904,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>368.5691090902119</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
@@ -10922,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11144,22 +11144,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N42" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11378,16 +11378,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N45" t="n">
-        <v>301.248502863135</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O45" t="n">
         <v>383.6105333221035</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23257,31 +23257,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>310.2633432389318</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E11" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G11" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
-        <v>339.4748021157671</v>
+        <v>245.0643151220611</v>
       </c>
       <c r="I11" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23302,7 +23302,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -23342,25 +23342,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>100.3448682305015</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23387,7 +23387,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>107.8590164157209</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>200.1647286948216</v>
@@ -23396,7 +23396,7 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>251.6949831609196</v>
@@ -23405,7 +23405,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23436,13 +23436,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23497,28 +23497,28 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>345.4485756045711</v>
       </c>
       <c r="E14" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
-        <v>127.189416472325</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23545,10 +23545,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>251.3456529078365</v>
@@ -23560,7 +23560,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23576,28 +23576,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>84.29766814840984</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>41.18785501229924</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23621,13 +23621,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
         <v>225.9413820809748</v>
@@ -23636,7 +23636,7 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -23673,13 +23673,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23746,7 +23746,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
         <v>339.4748021157671</v>
@@ -23779,28 +23779,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
-        <v>215.4233321629012</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>136.9555830739709</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="18">
@@ -23813,25 +23813,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>14.33804334832377</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>26.5151993764422</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -23864,7 +23864,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>225.9413820809748</v>
@@ -23873,10 +23873,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -23892,7 +23892,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325981</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23946,7 +23946,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -23986,13 +23986,13 @@
         <v>174.288448637476</v>
       </c>
       <c r="H20" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24019,13 +24019,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>156.5945010984978</v>
+        <v>150.6253511395826</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -24050,7 +24050,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
@@ -24062,7 +24062,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>102.68284301593</v>
       </c>
       <c r="H21" t="n">
         <v>112.2354442364965</v>
@@ -24071,7 +24071,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24098,22 +24098,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>73.57837224961182</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24141,7 +24141,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>34.80401177309074</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H22" t="n">
         <v>162.2271725074396</v>
@@ -24183,7 +24183,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U22" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24214,22 +24214,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>165.8617568640524</v>
       </c>
       <c r="G23" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H23" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
-        <v>10.13979328157632</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24253,10 +24253,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>146.6038018839531</v>
       </c>
       <c r="T23" t="n">
         <v>223.0958495641314</v>
@@ -24274,7 +24274,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="24">
@@ -24287,28 +24287,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24332,22 +24332,22 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>148.5824661914362</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>169.9191536744524</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
@@ -24411,7 +24411,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S25" t="n">
         <v>224.0165980369723</v>
@@ -24432,7 +24432,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24442,22 +24442,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>162.9782053421103</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G26" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H26" t="n">
         <v>339.4748021157671</v>
@@ -24490,10 +24490,10 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>156.5945010984978</v>
       </c>
       <c r="T26" t="n">
         <v>223.0958495641314</v>
@@ -24502,7 +24502,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -24511,7 +24511,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24521,22 +24521,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>111.0375161441202</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>88.9707359233753</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -24545,7 +24545,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24569,13 +24569,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>225.9413820809748</v>
@@ -24584,13 +24584,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24691,19 +24691,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
-        <v>339.4748021157671</v>
+        <v>249.0858643776907</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24724,25 +24724,25 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>345.9756526602163</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -24764,7 +24764,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
         <v>157.6450804554009</v>
@@ -24782,7 +24782,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24806,13 +24806,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>86.22327114513369</v>
       </c>
       <c r="U30" t="n">
         <v>225.9413820809748</v>
@@ -24821,13 +24821,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>1.930300309871029</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24846,7 +24846,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>15.96843579630763</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24879,7 +24879,7 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q31" t="n">
         <v>86.16204325169439</v>
@@ -24903,7 +24903,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24931,13 +24931,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H32" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>11.94928935461252</v>
@@ -24967,25 +24967,25 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>189.2921341996816</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>10.33136403017744</v>
       </c>
       <c r="V32" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>136.9555830739709</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25019,7 +25019,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25043,13 +25043,13 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>50.10013888409016</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>150.8536247525263</v>
       </c>
       <c r="U33" t="n">
         <v>225.9413820809748</v>
@@ -25089,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H34" t="n">
         <v>162.2271725074396</v>
@@ -25125,7 +25125,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S34" t="n">
-        <v>90.82963045160426</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T34" t="n">
         <v>227.9455894282815</v>
@@ -25162,7 +25162,7 @@
         <v>113.6687527430239</v>
       </c>
       <c r="E35" t="n">
-        <v>169.6449844288197</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -25177,7 +25177,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25198,7 +25198,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>149.8691179411497</v>
@@ -25210,10 +25210,10 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3456529078365</v>
+        <v>61.00025583355162</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W35" t="n">
         <v>108.226679839754</v>
@@ -25222,7 +25222,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25238,7 +25238,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -25250,10 +25250,10 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>6.170947740628264</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>48.28034918004788</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25280,7 +25280,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>171.6831711038378</v>
@@ -25371,13 +25371,13 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V37" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25393,22 +25393,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>152.9875061275654</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>140.9160811946027</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G38" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
-        <v>339.4748021157671</v>
+        <v>127.189416472325</v>
       </c>
       <c r="I38" t="n">
         <v>210.4758895704059</v>
@@ -25456,7 +25456,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -25478,22 +25478,22 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>20.48777494728519</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25517,7 +25517,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>29.45831948188017</v>
       </c>
       <c r="S39" t="n">
         <v>171.6831711038378</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.6450125965693</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25599,7 +25599,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S40" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T40" t="n">
         <v>227.9455894282815</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -25642,7 +25642,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
@@ -25651,7 +25651,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25675,7 +25675,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>140.6346519250378</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -25684,7 +25684,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>139.0167266006028</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -25706,16 +25706,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
@@ -25730,7 +25730,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25760,22 +25760,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>171.1123110561968</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>120.4592573625854</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.6450125965693</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25836,7 +25836,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S43" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T43" t="n">
         <v>227.9455894282815</v>
@@ -25867,10 +25867,10 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -25882,10 +25882,10 @@
         <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
-        <v>318.2910467450428</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I44" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>11.94928935461252</v>
@@ -25909,22 +25909,22 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>8.181203141508671</v>
       </c>
       <c r="R44" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -25943,19 +25943,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>137.3435171632106</v>
@@ -25964,7 +25964,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25991,16 +25991,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>101.6580578993075</v>
       </c>
       <c r="T45" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>92.10597004991709</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -26012,7 +26012,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>46.64501259656927</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26082,7 +26082,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V46" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>407391.3724271237</v>
+        <v>407391.3724271236</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>407391.3724271236</v>
+        <v>407391.3724271237</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>407391.3724271237</v>
+        <v>407391.3724271235</v>
       </c>
     </row>
     <row r="9">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>407391.3724271235</v>
+        <v>407391.3724271236</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>407391.3724271236</v>
+        <v>407391.3724271235</v>
       </c>
     </row>
     <row r="16">
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117844</v>
+        <v>533677.1504117845</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.1504117842</v>
+        <v>533677.1504117843</v>
       </c>
       <c r="D2" t="n">
         <v>533677.1504117842</v>
       </c>
       <c r="E2" t="n">
+        <v>216008.874290732</v>
+      </c>
+      <c r="F2" t="n">
         <v>216008.8742907321</v>
-      </c>
-      <c r="F2" t="n">
-        <v>216008.874290732</v>
       </c>
       <c r="G2" t="n">
         <v>216008.8742907321</v>
@@ -26334,10 +26334,10 @@
         <v>216008.8742907321</v>
       </c>
       <c r="I2" t="n">
-        <v>216008.8742907321</v>
+        <v>216008.874290732</v>
       </c>
       <c r="J2" t="n">
-        <v>216008.8742907321</v>
+        <v>216008.874290732</v>
       </c>
       <c r="K2" t="n">
         <v>216008.8742907321</v>
@@ -26426,13 +26426,13 @@
         <v>320962.9529903556</v>
       </c>
       <c r="E4" t="n">
-        <v>42017.42535589615</v>
+        <v>42017.42535589614</v>
       </c>
       <c r="F4" t="n">
         <v>42017.42535589615</v>
       </c>
       <c r="G4" t="n">
-        <v>42017.42535589615</v>
+        <v>42017.42535589614</v>
       </c>
       <c r="H4" t="n">
         <v>42017.42535589615</v>
@@ -26444,7 +26444,7 @@
         <v>42017.42535589615</v>
       </c>
       <c r="K4" t="n">
-        <v>42017.42535589614</v>
+        <v>42017.42535589615</v>
       </c>
       <c r="L4" t="n">
         <v>42017.42535589615</v>
@@ -26453,13 +26453,13 @@
         <v>42017.42535589615</v>
       </c>
       <c r="N4" t="n">
-        <v>42017.42535589615</v>
+        <v>42017.42535589614</v>
       </c>
       <c r="O4" t="n">
         <v>42017.42535589615</v>
       </c>
       <c r="P4" t="n">
-        <v>42017.42535589614</v>
+        <v>42017.42535589615</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>118688.3448686895</v>
+        <v>118688.3448686896</v>
       </c>
       <c r="C6" t="n">
-        <v>103856.6064709988</v>
+        <v>103856.606470999</v>
       </c>
       <c r="D6" t="n">
         <v>164432.928657667</v>
       </c>
       <c r="E6" t="n">
-        <v>159337.7801710743</v>
+        <v>147119.7695510337</v>
       </c>
       <c r="F6" t="n">
-        <v>159337.7801710742</v>
+        <v>147119.7695510338</v>
       </c>
       <c r="G6" t="n">
-        <v>159337.7801710743</v>
+        <v>147119.7695510338</v>
       </c>
       <c r="H6" t="n">
-        <v>159337.7801710742</v>
+        <v>147119.7695510338</v>
       </c>
       <c r="I6" t="n">
-        <v>159337.7801710743</v>
+        <v>147119.7695510337</v>
       </c>
       <c r="J6" t="n">
-        <v>145336.548030795</v>
+        <v>133118.5374107544</v>
       </c>
       <c r="K6" t="n">
-        <v>111080.8272374417</v>
+        <v>98862.81661740126</v>
       </c>
       <c r="L6" t="n">
-        <v>159337.7801710743</v>
+        <v>147119.7695510338</v>
       </c>
       <c r="M6" t="n">
-        <v>159337.7801710742</v>
+        <v>147119.7695510337</v>
       </c>
       <c r="N6" t="n">
-        <v>159337.7801710742</v>
+        <v>147119.7695510338</v>
       </c>
       <c r="O6" t="n">
-        <v>159337.7801710742</v>
+        <v>147119.7695510338</v>
       </c>
       <c r="P6" t="n">
-        <v>159337.7801710743</v>
+        <v>147119.7695510338</v>
       </c>
     </row>
   </sheetData>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>329.2213126535308</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>311.7603627610578</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>301.1705126107332</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
+        <v>400</v>
+      </c>
+      <c r="G2" t="n">
         <v>396.9849362740401</v>
-      </c>
-      <c r="G2" t="n">
-        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>156.9633605604562</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,13 +27426,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>96.35658893119992</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>169.5833205541816</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
@@ -27478,7 +27478,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>35.88410384146533</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27508,7 +27508,7 @@
         <v>46.64530514269338</v>
       </c>
       <c r="S3" t="n">
-        <v>125.2959268781319</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
@@ -27520,10 +27520,10 @@
         <v>179.2880581394755</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>205.3077389352137</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>152.2604561935277</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27578,22 +27578,22 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>62.72157442133235</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>123.7808623672197</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
         <v>170.5040690270225</v>
       </c>
       <c r="T4" t="n">
-        <v>227.9455894282815</v>
+        <v>174.4330604183317</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3190293564909</v>
+        <v>260.1571197910224</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27627,19 +27627,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>335.8613673013232</v>
       </c>
       <c r="G5" t="n">
-        <v>187.8898775365355</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27663,22 +27663,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27694,10 +27694,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -27706,7 +27706,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>25.29245455060735</v>
       </c>
       <c r="G6" t="n">
         <v>137.3435171632106</v>
@@ -27715,7 +27715,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27745,13 +27745,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -27760,10 +27760,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>28.09303498144112</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27800,7 +27800,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27815,13 +27815,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -27839,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>117.5136203646586</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27852,22 +27852,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
-        <v>231.8333861825618</v>
+        <v>374.8264583819999</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -27909,16 +27909,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27943,7 +27943,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
@@ -27955,7 +27955,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27982,22 +27982,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>56.94228378966258</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
-        <v>57.27523188042647</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -28052,13 +28052,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>88.11912650183325</v>
       </c>
     </row>
     <row r="11">
@@ -34707,16 +34707,16 @@
         <v>53.51252900994975</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>51.35040662570936</v>
+        <v>51.35040662570938</v>
       </c>
       <c r="P2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>53.51252900994975</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>51.35040662570936</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="P3" t="n">
-        <v>51.35040662570936</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35017,16 +35017,16 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>232.285965523585</v>
+        <v>104.6525397736754</v>
       </c>
       <c r="M6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>169.9091475161415</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
@@ -35035,7 +35035,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35181,7 +35181,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N8" t="n">
         <v>207.9338608153932</v>
@@ -35260,7 +35260,7 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>161.1784674257276</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="N9" t="n">
         <v>241.0142888776591</v>
@@ -35272,7 +35272,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35424,7 +35424,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O11" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P11" t="n">
         <v>90.5657124162131</v>
@@ -35491,7 +35491,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>232.285965523585</v>
@@ -35503,13 +35503,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O12" t="n">
-        <v>43.28534947792182</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35728,7 +35728,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
         <v>232.285965523585</v>
@@ -35737,16 +35737,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N15" t="n">
-        <v>241.0142888776591</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="O15" t="n">
-        <v>240.0046611659691</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35968,22 +35968,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>34.55702612384782</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36208,19 +36208,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792188</v>
       </c>
       <c r="N21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
-        <v>113.3808631277494</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36439,22 +36439,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
-        <v>161.1808241620674</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
         <v>70.09551364982758</v>
@@ -36679,13 +36679,13 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>217.7067518141195</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="N27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>241.0142888776591</v>
@@ -36916,10 +36916,10 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>161.1784674257276</v>
+        <v>34.55702612384782</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
         <v>241.0142888776591</v>
@@ -36928,10 +36928,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37150,25 +37150,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N33" t="n">
-        <v>240.0046611659691</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37387,19 +37387,19 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
+        <v>99.81127712997396</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N36" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O36" t="n">
-        <v>217.7067518141195</v>
       </c>
       <c r="P36" t="n">
         <v>184.4883612256069</v>
@@ -37624,16 +37624,16 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>226.4350751681936</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
@@ -37642,7 +37642,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37788,10 +37788,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N41" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O41" t="n">
         <v>150.7019698410586</v>
@@ -37864,22 +37864,22 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N42" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O42" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38098,16 +38098,16 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N45" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O45" t="n">
         <v>241.0142888776591</v>
@@ -38116,7 +38116,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
